--- a/Xbox_Game_Pass_Subscriptions_Sales.xlsx
+++ b/Xbox_Game_Pass_Subscriptions_Sales.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\planilhas\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Personal Projects\DIO\xbox-game-pass-subscriptions-salles-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F8ED6-40B2-4E08-832A-7140AC03FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA24E451-9C56-4F62-97FC-AE2DF7EEF783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
     <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="320">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -979,6 +982,63 @@
   </si>
   <si>
     <t>Subscription Price</t>
+  </si>
+  <si>
+    <t>INFOMAÇÃO</t>
+  </si>
+  <si>
+    <t>É uma pergunta de negócio respondida através de alguma análise de dado específica</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Total Value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pergunta 02 - Qual o faturamento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TOTAL de vendas de planos ANUAIS, separado por auto renovação ou não. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pergunta 01 - Qual é o faturamento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TOTAL de vendas dos diferentes tipos de planos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( contendo todas as assinaturas agregadas )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -986,7 +1046,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1085,9 +1145,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1105,40 +1165,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1664,8 +1706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057275" y="5410199"/>
-          <a:ext cx="1549476" cy="752476"/>
+          <a:off x="1057275" y="5219699"/>
+          <a:ext cx="1549476" cy="721996"/>
           <a:chOff x="3495675" y="5400674"/>
           <a:chExt cx="1549476" cy="752476"/>
         </a:xfrm>
@@ -1948,8 +1990,5201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="46034.701486689817" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="295" xr:uid="{D104C5BE-5333-4EA9-8A73-62526E98019B}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Subscriber ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3231" maxValue="3525"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="280">
+        <s v="João Silva"/>
+        <s v="Maria Oliveira"/>
+        <s v="Lucas Fernandes"/>
+        <s v="Ana Souza"/>
+        <s v="Pedro Gonçalves"/>
+        <s v="Felipe Costa"/>
+        <s v="Camila Ribeiro"/>
+        <s v="André Mendes"/>
+        <s v="Sofia Almeida"/>
+        <s v="Bruno Martins"/>
+        <s v="Rita Castro"/>
+        <s v="Marco Túlio"/>
+        <s v="Lívia Silveira"/>
+        <s v="Diogo Sousa"/>
+        <s v="Fernanda Lima"/>
+        <s v="Caio Pereira"/>
+        <s v="Beatriz Gomes"/>
+        <s v="Cesar Oliveira"/>
+        <s v="Débora Machado"/>
+        <s v="Eduardo Vargas"/>
+        <s v="Gabriela Santos"/>
+        <s v="Henrique Dias"/>
+        <s v="Isabela Moreira"/>
+        <s v="Joaquim Barbosa"/>
+        <s v="Lara Rocha"/>
+        <s v="Matheus Silva"/>
+        <s v="Nicole Costa"/>
+        <s v="Otávio Mendonça"/>
+        <s v="Paula Ferreira"/>
+        <s v="Raquel Alves"/>
+        <s v="Samuel Pires"/>
+        <s v="Tânia Barros"/>
+        <s v="Vinicius Lima"/>
+        <s v="Yasmin Teixeira"/>
+        <s v="Zé Carlos"/>
+        <s v="Amanda Nogueira"/>
+        <s v="Bruno Cavalheiro"/>
+        <s v="Carla Dias"/>
+        <s v="Diego Fontes"/>
+        <s v="Eunice Lima"/>
+        <s v="Fábio Martins"/>
+        <s v="Gisele Araújo"/>
+        <s v="Hélio Castro"/>
+        <s v="Ingrid Menezes"/>
+        <s v="Jorge Baptista"/>
+        <s v="Kléber Oliveira"/>
+        <s v="Luciana Freitas"/>
+        <s v="Márcia Eller"/>
+        <s v="Nilo Peçanha"/>
+        <s v="Oscar Neves"/>
+        <s v="Patrícia Soares"/>
+        <s v="Quirino Gonçalves"/>
+        <s v="Raul Machado"/>
+        <s v="Sônia Lobo"/>
+        <s v="Tiago Ramos"/>
+        <s v="Ugo Pires"/>
+        <s v="Valéria Nobre"/>
+        <s v="William Siqueira"/>
+        <s v="Xuxa Meneghel"/>
+        <s v="Yara Figueiredo"/>
+        <s v="Zacarias Alves"/>
+        <s v="Amanda Bynes"/>
+        <s v="Bruno Mars"/>
+        <s v="Carla Bruni"/>
+        <s v="Diego Maradona"/>
+        <s v="Estela Marques"/>
+        <s v="Fábio Nobre"/>
+        <s v="Gabriel Oliveira"/>
+        <s v="Helena Santos"/>
+        <s v="Ivan Carvalho"/>
+        <s v="Júlia Ferreira"/>
+        <s v="Karla Alves"/>
+        <s v="Lucas Mendes"/>
+        <s v="Mônica Gomes"/>
+        <s v="Norberto Queiroz"/>
+        <s v="Otávio Barros"/>
+        <s v="Paula Vieira"/>
+        <s v="Quentin Ramos"/>
+        <s v="Raquel Novaes"/>
+        <s v="Samantha Lopes"/>
+        <s v="Tiago Martins"/>
+        <s v="Ulysses Guimarães"/>
+        <s v="Vanessa Silva"/>
+        <s v="William Carneiro"/>
+        <s v="Ximena Rocha"/>
+        <s v="Yasmin Figueiredo"/>
+        <s v="Zara Cunha"/>
+        <s v="Alan Teixeira"/>
+        <s v="Bárbara Oliveira"/>
+        <s v="Carlos Junqueira"/>
+        <s v="Daniela Moura"/>
+        <s v="Eduardo Lima"/>
+        <s v="Fabiana Araújo"/>
+        <s v="Geraldo Ribeiro"/>
+        <s v="Héctor Vargas"/>
+        <s v="Isabela Fonseca"/>
+        <s v="João Pedro Almeida"/>
+        <s v="Klara Costa"/>
+        <s v="Luciana Mendes"/>
+        <s v="Marcelo Gouveia"/>
+        <s v="Nívea Borges"/>
+        <s v="Oscar Nogueira"/>
+        <s v="Patrícia Alves"/>
+        <s v="Rafaela Silva"/>
+        <s v="Samantha Moraes"/>
+        <s v="Tatiana Rocha"/>
+        <s v="Ulisses Tavares"/>
+        <s v="Víctor Lemos"/>
+        <s v="Wilma Barros"/>
+        <s v="Xavier Nascimento"/>
+        <s v="Yago Pereira"/>
+        <s v="Zilda Ferreira"/>
+        <s v="Amanda Lopes"/>
+        <s v="Bruno Miranda"/>
+        <s v="Célia Torres"/>
+        <s v="Diogo Souza"/>
+        <s v="Elisa Castro"/>
+        <s v="Fátima Lima"/>
+        <s v="Hélio Martins"/>
+        <s v="Íris Santos"/>
+        <s v="João Marcelo"/>
+        <s v="Larissa Gomes"/>
+        <s v="Márcio Silva"/>
+        <s v="Nadia Costa"/>
+        <s v="Oscar Almeida"/>
+        <s v="Patricia Soares"/>
+        <s v="Quênia Barros"/>
+        <s v="Rafael Torres"/>
+        <s v="Silvia Nascimento"/>
+        <s v="Tiago Mendes"/>
+        <s v="Ursula Silva"/>
+        <s v="Vanessa Moraes"/>
+        <s v="Waldir Junior"/>
+        <s v="Xavier Lopes"/>
+        <s v="Yolanda Freitas"/>
+        <s v="Zacarias Nunes"/>
+        <s v="Ana Clara Barreto"/>
+        <s v="Bruno Henrique"/>
+        <s v="Carlos Eduardo"/>
+        <s v="Débora Lima"/>
+        <s v="Elisa Neves"/>
+        <s v="Fabiano Gomes"/>
+        <s v="Gisele Oliveira"/>
+        <s v="Héctor Silva"/>
+        <s v="Igor Martins"/>
+        <s v="Joana Figueiredo"/>
+        <s v="Kleber Machado"/>
+        <s v="Luciana Santos"/>
+        <s v="Marcos Teixeira"/>
+        <s v="Natalia Costa"/>
+        <s v="Oscar Ribeiro"/>
+        <s v="Patricia Almeida"/>
+        <s v="Quirino Junior"/>
+        <s v="Renata Machado"/>
+        <s v="Sônia Alves"/>
+        <s v="Tiago Nunes"/>
+        <s v="Ulysses Pereira"/>
+        <s v="Vanessa Lima"/>
+        <s v="Wagner Santos"/>
+        <s v="Yasmin Silva"/>
+        <s v="Zacarias de Souza"/>
+        <s v="André Lima"/>
+        <s v="Bianca Freitas"/>
+        <s v="Caio Mendes"/>
+        <s v="Eduardo Costa"/>
+        <s v="Fernanda Gomes"/>
+        <s v="Guilherme Souza"/>
+        <s v="Helena Ribeiro"/>
+        <s v="Igor Santos"/>
+        <s v="João Carvalho"/>
+        <s v="Klara Fagundes"/>
+        <s v="Lúcia Mendonça"/>
+        <s v="Marcelo Novaes"/>
+        <s v="Nina Pacheco"/>
+        <s v="Olívia Rios"/>
+        <s v="Paulo Quintana"/>
+        <s v="Raquel Domingos"/>
+        <s v="Samuel Viana"/>
+        <s v="Tatiane Rocha"/>
+        <s v="Ulysses Farias"/>
+        <s v="Vanessa Moreira"/>
+        <s v="William Carvalho"/>
+        <s v="Ximena Barros"/>
+        <s v="Yara Machado"/>
+        <s v="Zacarias Costa"/>
+        <s v="André Lopes"/>
+        <s v="Beatriz Souza"/>
+        <s v="Daniela Araújo"/>
+        <s v="Eduardo Santos"/>
+        <s v="Gabriel Teixeira"/>
+        <s v="Igor Mendes"/>
+        <s v="Joana Silveira"/>
+        <s v="Lucas Martins"/>
+        <s v="Marcela Gouveia"/>
+        <s v="Nicolas Borges"/>
+        <s v="Olivia Freitas"/>
+        <s v="Paulo Nogueira"/>
+        <s v="Raquel Andrade"/>
+        <s v="Sônia Carvalho"/>
+        <s v="Tiago Rodrigues"/>
+        <s v="Ursula Monteiro"/>
+        <s v="Vanessa Pereira"/>
+        <s v="Walter Silva"/>
+        <s v="Xavier Almeida"/>
+        <s v="Yasmine Correia"/>
+        <s v="Zacarias Almeida"/>
+        <s v="Amanda Costa"/>
+        <s v="Bruno Ferreira"/>
+        <s v="Diogo Martins"/>
+        <s v="Elisa Campos"/>
+        <s v="Fabiana Lima"/>
+        <s v="Gabriel Santos"/>
+        <s v="Helena Ferreira"/>
+        <s v="Ígor Nunes"/>
+        <s v="Luciana Morais"/>
+        <s v="Marcos Vinícius"/>
+        <s v="Natália Barros"/>
+        <s v="Oscar Sampaio"/>
+        <s v="Patrícia Leite"/>
+        <s v="Quênia Rocha"/>
+        <s v="Sandra Gouveia"/>
+        <s v="Tiago Lacerda"/>
+        <s v="Ursula Fonseca"/>
+        <s v="Vanessa Andrade"/>
+        <s v="William Castro"/>
+        <s v="Xavier Monteiro"/>
+        <s v="Yasmin Figueira"/>
+        <s v="Zacarias Mendonça"/>
+        <s v="Amanda Menezes"/>
+        <s v="Bruno Santos"/>
+        <s v="Carla Ferreira"/>
+        <s v="Diogo Alves"/>
+        <s v="Fabiano Pires"/>
+        <s v="Giovana Ribeiro"/>
+        <s v="Hélio Costa"/>
+        <s v="Íris Loureiro"/>
+        <s v="João Pereira"/>
+        <s v="Klara Silva"/>
+        <s v="Luciana Barros"/>
+        <s v="Marcos Gomes"/>
+        <s v="Natália Soares"/>
+        <s v="Oscar Machado"/>
+        <s v="Patrícia Lima"/>
+        <s v="Quirino Neto"/>
+        <s v="Rafaela Souza"/>
+        <s v="Sandro Almeida"/>
+        <s v="Tânia Ribeiro"/>
+        <s v="Ugo Dias"/>
+        <s v="Valéria Lima"/>
+        <s v="William Fernandes"/>
+        <s v="Xuxa Mendes"/>
+        <s v="Ygor Farias"/>
+        <s v="Zilda Barros"/>
+        <s v="Amanda Santos"/>
+        <s v="Bruno Costa"/>
+        <s v="Carla Rodrigues"/>
+        <s v="Diogo Pereira"/>
+        <s v="Elisa Correia"/>
+        <s v="Fábio Lourenço"/>
+        <s v="Gabriela Neves"/>
+        <s v="Henrique Gonçalves"/>
+        <s v="João Marcelo Alves"/>
+        <s v="Klara Fonseca"/>
+        <s v="Lucas Mendonça"/>
+        <s v="Marcela Torres"/>
+        <s v="Natália Castro"/>
+        <s v="Oscar Martins"/>
+        <s v="Patrícia Oliveira"/>
+        <s v="Quentin Nogueira"/>
+        <s v="Raquel Silva"/>
+        <s v="Sandro Gomes"/>
+        <s v="Tânia Machado"/>
+        <s v="Xavier Reis"/>
+        <s v="Yasmin Rocha"/>
+        <s v="Zacarias Duarte"/>
+        <s v="Amanda Freitas"/>
+        <s v="Bruno Almeida"/>
+        <s v="Carla Siqueira"/>
+        <s v="Diogo Ramos"/>
+        <s v="Elisa Magalhães"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Plan" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Start Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-12-17T00:00:00"/>
+    </cacheField>
+    <cacheField name="Auto Renewal" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Subscription Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="15" count="3">
+        <n v="15"/>
+        <n v="5"/>
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Subscription Type" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Monthly"/>
+        <s v="Annual"/>
+        <s v="Quarterly"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EA Play Season Pass" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="164">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Minecraft Season Pass" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Minecraft Season Pass Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Coupon Value" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Total Value" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="62"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="295">
+  <r>
+    <n v="3231"/>
+    <x v="0"/>
+    <s v="Ultimate"/>
+    <d v="2024-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3232"/>
+    <x v="1"/>
+    <s v="Core"/>
+    <d v="2024-01-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3233"/>
+    <x v="2"/>
+    <s v="Standard"/>
+    <d v="2024-02-10T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3234"/>
+    <x v="3"/>
+    <s v="Ultimate"/>
+    <d v="2024-02-20T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3235"/>
+    <x v="4"/>
+    <s v="Core"/>
+    <d v="2024-03-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3236"/>
+    <x v="5"/>
+    <s v="Standard"/>
+    <d v="2024-03-02T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <n v="3237"/>
+    <x v="6"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-03T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <n v="3238"/>
+    <x v="7"/>
+    <s v="Core"/>
+    <d v="2024-03-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3239"/>
+    <x v="8"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-05T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3240"/>
+    <x v="9"/>
+    <s v="Standard"/>
+    <d v="2024-03-06T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3241"/>
+    <x v="10"/>
+    <s v="Core"/>
+    <d v="2024-03-07T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3242"/>
+    <x v="11"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3243"/>
+    <x v="12"/>
+    <s v="Standard"/>
+    <d v="2024-03-09T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3244"/>
+    <x v="13"/>
+    <s v="Core"/>
+    <d v="2024-03-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3245"/>
+    <x v="14"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-11T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="8"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <n v="3246"/>
+    <x v="15"/>
+    <s v="Standard"/>
+    <d v="2024-03-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3247"/>
+    <x v="16"/>
+    <s v="Core"/>
+    <d v="2024-03-13T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3248"/>
+    <x v="17"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-14T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3249"/>
+    <x v="18"/>
+    <s v="Standard"/>
+    <d v="2024-03-15T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3250"/>
+    <x v="19"/>
+    <s v="Core"/>
+    <d v="2024-03-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3251"/>
+    <x v="20"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-17T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3252"/>
+    <x v="21"/>
+    <s v="Standard"/>
+    <d v="2024-03-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3253"/>
+    <x v="22"/>
+    <s v="Core"/>
+    <d v="2024-03-19T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3254"/>
+    <x v="23"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-20T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3255"/>
+    <x v="24"/>
+    <s v="Standard"/>
+    <d v="2024-03-21T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3256"/>
+    <x v="25"/>
+    <s v="Core"/>
+    <d v="2024-03-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3257"/>
+    <x v="26"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-23T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3258"/>
+    <x v="27"/>
+    <s v="Standard"/>
+    <d v="2024-03-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3259"/>
+    <x v="28"/>
+    <s v="Core"/>
+    <d v="2024-03-25T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3260"/>
+    <x v="29"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3261"/>
+    <x v="30"/>
+    <s v="Standard"/>
+    <d v="2024-03-27T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3262"/>
+    <x v="31"/>
+    <s v="Core"/>
+    <d v="2024-03-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3263"/>
+    <x v="32"/>
+    <s v="Ultimate"/>
+    <d v="2024-03-29T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3264"/>
+    <x v="33"/>
+    <s v="Standard"/>
+    <d v="2024-03-30T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3265"/>
+    <x v="34"/>
+    <s v="Core"/>
+    <d v="2024-03-31T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3266"/>
+    <x v="35"/>
+    <s v="Core"/>
+    <d v="2024-04-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3267"/>
+    <x v="36"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-02T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3268"/>
+    <x v="37"/>
+    <s v="Standard"/>
+    <d v="2024-04-03T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3269"/>
+    <x v="38"/>
+    <s v="Core"/>
+    <d v="2024-04-04T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3270"/>
+    <x v="39"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-05T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3271"/>
+    <x v="40"/>
+    <s v="Standard"/>
+    <d v="2024-04-06T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3272"/>
+    <x v="41"/>
+    <s v="Core"/>
+    <d v="2024-04-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3273"/>
+    <x v="42"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-08T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3274"/>
+    <x v="43"/>
+    <s v="Standard"/>
+    <d v="2024-04-09T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3275"/>
+    <x v="44"/>
+    <s v="Core"/>
+    <d v="2024-04-10T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3276"/>
+    <x v="45"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3277"/>
+    <x v="46"/>
+    <s v="Standard"/>
+    <d v="2024-04-12T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3278"/>
+    <x v="47"/>
+    <s v="Core"/>
+    <d v="2024-04-13T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3279"/>
+    <x v="48"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-14T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3280"/>
+    <x v="49"/>
+    <s v="Standard"/>
+    <d v="2024-04-15T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3281"/>
+    <x v="50"/>
+    <s v="Core"/>
+    <d v="2024-04-16T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3282"/>
+    <x v="51"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-17T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3283"/>
+    <x v="52"/>
+    <s v="Standard"/>
+    <d v="2024-04-18T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3284"/>
+    <x v="53"/>
+    <s v="Core"/>
+    <d v="2024-04-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3285"/>
+    <x v="54"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-20T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3286"/>
+    <x v="55"/>
+    <s v="Standard"/>
+    <d v="2024-04-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3287"/>
+    <x v="56"/>
+    <s v="Core"/>
+    <d v="2024-04-22T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3288"/>
+    <x v="57"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-23T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3289"/>
+    <x v="58"/>
+    <s v="Standard"/>
+    <d v="2024-04-24T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3290"/>
+    <x v="59"/>
+    <s v="Core"/>
+    <d v="2024-04-25T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3291"/>
+    <x v="60"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-26T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3292"/>
+    <x v="61"/>
+    <s v="Standard"/>
+    <d v="2024-04-27T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3293"/>
+    <x v="62"/>
+    <s v="Core"/>
+    <d v="2024-04-28T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3294"/>
+    <x v="63"/>
+    <s v="Ultimate"/>
+    <d v="2024-04-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3295"/>
+    <x v="64"/>
+    <s v="Standard"/>
+    <d v="2024-04-30T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3296"/>
+    <x v="65"/>
+    <s v="Core"/>
+    <d v="2024-05-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3297"/>
+    <x v="66"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-02T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3298"/>
+    <x v="67"/>
+    <s v="Standard"/>
+    <d v="2024-05-03T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3299"/>
+    <x v="68"/>
+    <s v="Core"/>
+    <d v="2024-05-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3300"/>
+    <x v="69"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-05T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3301"/>
+    <x v="70"/>
+    <s v="Standard"/>
+    <d v="2024-05-06T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3302"/>
+    <x v="71"/>
+    <s v="Core"/>
+    <d v="2024-05-07T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3303"/>
+    <x v="72"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3304"/>
+    <x v="73"/>
+    <s v="Standard"/>
+    <d v="2024-05-09T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3305"/>
+    <x v="74"/>
+    <s v="Core"/>
+    <d v="2024-05-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3306"/>
+    <x v="75"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-11T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3307"/>
+    <x v="76"/>
+    <s v="Standard"/>
+    <d v="2024-05-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3308"/>
+    <x v="77"/>
+    <s v="Core"/>
+    <d v="2024-05-13T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3309"/>
+    <x v="78"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-14T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3310"/>
+    <x v="79"/>
+    <s v="Standard"/>
+    <d v="2024-05-15T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3311"/>
+    <x v="80"/>
+    <s v="Core"/>
+    <d v="2024-05-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3312"/>
+    <x v="81"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-17T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3313"/>
+    <x v="82"/>
+    <s v="Standard"/>
+    <d v="2024-05-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3314"/>
+    <x v="83"/>
+    <s v="Core"/>
+    <d v="2024-05-19T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3315"/>
+    <x v="84"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-20T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3316"/>
+    <x v="85"/>
+    <s v="Standard"/>
+    <d v="2024-05-21T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3317"/>
+    <x v="86"/>
+    <s v="Core"/>
+    <d v="2024-05-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3318"/>
+    <x v="87"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-23T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3319"/>
+    <x v="88"/>
+    <s v="Standard"/>
+    <d v="2024-05-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3320"/>
+    <x v="89"/>
+    <s v="Core"/>
+    <d v="2024-05-25T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3321"/>
+    <x v="90"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3322"/>
+    <x v="91"/>
+    <s v="Standard"/>
+    <d v="2024-05-27T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3323"/>
+    <x v="92"/>
+    <s v="Core"/>
+    <d v="2024-05-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3324"/>
+    <x v="93"/>
+    <s v="Ultimate"/>
+    <d v="2024-05-29T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3325"/>
+    <x v="94"/>
+    <s v="Standard"/>
+    <d v="2024-05-30T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3326"/>
+    <x v="95"/>
+    <s v="Core"/>
+    <d v="2024-05-31T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3327"/>
+    <x v="96"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3328"/>
+    <x v="97"/>
+    <s v="Standard"/>
+    <d v="2024-06-02T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3329"/>
+    <x v="98"/>
+    <s v="Core"/>
+    <d v="2024-06-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3330"/>
+    <x v="99"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-04T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3331"/>
+    <x v="100"/>
+    <s v="Standard"/>
+    <d v="2024-06-05T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3332"/>
+    <x v="101"/>
+    <s v="Core"/>
+    <d v="2024-06-06T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3333"/>
+    <x v="102"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-07T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3334"/>
+    <x v="103"/>
+    <s v="Standard"/>
+    <d v="2024-06-08T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3335"/>
+    <x v="104"/>
+    <s v="Core"/>
+    <d v="2024-06-09T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3336"/>
+    <x v="105"/>
+    <s v="Core"/>
+    <d v="2024-06-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3337"/>
+    <x v="106"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-11T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3338"/>
+    <x v="107"/>
+    <s v="Standard"/>
+    <d v="2024-06-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3339"/>
+    <x v="108"/>
+    <s v="Core"/>
+    <d v="2024-06-13T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3340"/>
+    <x v="109"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-14T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3341"/>
+    <x v="110"/>
+    <s v="Standard"/>
+    <d v="2024-06-15T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3342"/>
+    <x v="111"/>
+    <s v="Core"/>
+    <d v="2024-06-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3343"/>
+    <x v="112"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-17T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3344"/>
+    <x v="113"/>
+    <s v="Standard"/>
+    <d v="2024-06-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3345"/>
+    <x v="114"/>
+    <s v="Core"/>
+    <d v="2024-06-19T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3346"/>
+    <x v="115"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-20T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3347"/>
+    <x v="116"/>
+    <s v="Standard"/>
+    <d v="2024-06-21T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3348"/>
+    <x v="117"/>
+    <s v="Core"/>
+    <d v="2024-06-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3349"/>
+    <x v="93"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-23T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3350"/>
+    <x v="118"/>
+    <s v="Standard"/>
+    <d v="2024-06-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3351"/>
+    <x v="119"/>
+    <s v="Core"/>
+    <d v="2024-06-25T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3352"/>
+    <x v="120"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3353"/>
+    <x v="121"/>
+    <s v="Standard"/>
+    <d v="2024-06-27T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3354"/>
+    <x v="122"/>
+    <s v="Core"/>
+    <d v="2024-06-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3355"/>
+    <x v="123"/>
+    <s v="Ultimate"/>
+    <d v="2024-06-29T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3356"/>
+    <x v="124"/>
+    <s v="Standard"/>
+    <d v="2024-06-30T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3357"/>
+    <x v="125"/>
+    <s v="Core"/>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3358"/>
+    <x v="126"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-02T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3359"/>
+    <x v="127"/>
+    <s v="Standard"/>
+    <d v="2024-07-03T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3360"/>
+    <x v="128"/>
+    <s v="Core"/>
+    <d v="2024-07-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3361"/>
+    <x v="129"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-05T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3362"/>
+    <x v="130"/>
+    <s v="Standard"/>
+    <d v="2024-07-06T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3363"/>
+    <x v="131"/>
+    <s v="Core"/>
+    <d v="2024-07-07T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3364"/>
+    <x v="132"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3365"/>
+    <x v="133"/>
+    <s v="Standard"/>
+    <d v="2024-07-09T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3366"/>
+    <x v="134"/>
+    <s v="Core"/>
+    <d v="2024-07-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3367"/>
+    <x v="135"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-11T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3368"/>
+    <x v="136"/>
+    <s v="Standard"/>
+    <d v="2024-07-12T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3369"/>
+    <x v="137"/>
+    <s v="Core"/>
+    <d v="2024-07-13T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3370"/>
+    <x v="138"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-14T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3371"/>
+    <x v="139"/>
+    <s v="Standard"/>
+    <d v="2024-07-15T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3372"/>
+    <x v="140"/>
+    <s v="Core"/>
+    <d v="2024-07-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3373"/>
+    <x v="141"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-17T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3374"/>
+    <x v="142"/>
+    <s v="Standard"/>
+    <d v="2024-07-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3375"/>
+    <x v="143"/>
+    <s v="Core"/>
+    <d v="2024-07-19T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3376"/>
+    <x v="144"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-20T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3377"/>
+    <x v="145"/>
+    <s v="Standard"/>
+    <d v="2024-07-21T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3378"/>
+    <x v="146"/>
+    <s v="Core"/>
+    <d v="2024-07-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3379"/>
+    <x v="147"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-23T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3380"/>
+    <x v="148"/>
+    <s v="Standard"/>
+    <d v="2024-07-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3381"/>
+    <x v="149"/>
+    <s v="Core"/>
+    <d v="2024-07-25T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3382"/>
+    <x v="150"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3383"/>
+    <x v="151"/>
+    <s v="Standard"/>
+    <d v="2024-07-27T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3384"/>
+    <x v="152"/>
+    <s v="Core"/>
+    <d v="2024-07-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3385"/>
+    <x v="153"/>
+    <s v="Ultimate"/>
+    <d v="2024-07-29T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3386"/>
+    <x v="154"/>
+    <s v="Standard"/>
+    <d v="2024-07-30T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3387"/>
+    <x v="155"/>
+    <s v="Core"/>
+    <d v="2024-07-31T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3388"/>
+    <x v="156"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3389"/>
+    <x v="157"/>
+    <s v="Standard"/>
+    <d v="2024-08-02T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3390"/>
+    <x v="158"/>
+    <s v="Core"/>
+    <d v="2024-08-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3391"/>
+    <x v="58"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-04T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3392"/>
+    <x v="159"/>
+    <s v="Standard"/>
+    <d v="2024-08-05T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3393"/>
+    <x v="160"/>
+    <s v="Core"/>
+    <d v="2024-08-06T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3394"/>
+    <x v="161"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-07T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3395"/>
+    <x v="162"/>
+    <s v="Standard"/>
+    <d v="2024-08-08T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3396"/>
+    <x v="163"/>
+    <s v="Core"/>
+    <d v="2024-08-09T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3397"/>
+    <x v="90"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-10T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3398"/>
+    <x v="164"/>
+    <s v="Standard"/>
+    <d v="2024-08-11T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3399"/>
+    <x v="165"/>
+    <s v="Core"/>
+    <d v="2024-08-12T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3400"/>
+    <x v="166"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-13T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3401"/>
+    <x v="167"/>
+    <s v="Standard"/>
+    <d v="2024-08-14T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3402"/>
+    <x v="168"/>
+    <s v="Core"/>
+    <d v="2024-08-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3403"/>
+    <x v="169"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-16T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3404"/>
+    <x v="170"/>
+    <s v="Standard"/>
+    <d v="2024-08-17T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3405"/>
+    <x v="171"/>
+    <s v="Core"/>
+    <d v="2024-08-18T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3406"/>
+    <x v="172"/>
+    <s v="Core"/>
+    <d v="2024-08-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3407"/>
+    <x v="173"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-20T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3408"/>
+    <x v="174"/>
+    <s v="Standard"/>
+    <d v="2024-08-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3409"/>
+    <x v="175"/>
+    <s v="Core"/>
+    <d v="2024-08-22T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3410"/>
+    <x v="176"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-23T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3411"/>
+    <x v="177"/>
+    <s v="Standard"/>
+    <d v="2024-08-24T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3412"/>
+    <x v="178"/>
+    <s v="Core"/>
+    <d v="2024-08-25T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3413"/>
+    <x v="179"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-26T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3414"/>
+    <x v="180"/>
+    <s v="Standard"/>
+    <d v="2024-08-27T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3415"/>
+    <x v="181"/>
+    <s v="Core"/>
+    <d v="2024-08-28T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3416"/>
+    <x v="182"/>
+    <s v="Ultimate"/>
+    <d v="2024-08-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3417"/>
+    <x v="183"/>
+    <s v="Standard"/>
+    <d v="2024-08-30T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3418"/>
+    <x v="184"/>
+    <s v="Core"/>
+    <d v="2024-08-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3419"/>
+    <x v="185"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3420"/>
+    <x v="186"/>
+    <s v="Standard"/>
+    <d v="2024-09-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3421"/>
+    <x v="15"/>
+    <s v="Core"/>
+    <d v="2024-09-03T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3422"/>
+    <x v="187"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-04T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3423"/>
+    <x v="188"/>
+    <s v="Standard"/>
+    <d v="2024-09-05T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3424"/>
+    <x v="14"/>
+    <s v="Core"/>
+    <d v="2024-09-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3425"/>
+    <x v="189"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-07T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3426"/>
+    <x v="167"/>
+    <s v="Standard"/>
+    <d v="2024-09-08T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3427"/>
+    <x v="190"/>
+    <s v="Core"/>
+    <d v="2024-09-09T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3428"/>
+    <x v="191"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-10T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3429"/>
+    <x v="192"/>
+    <s v="Standard"/>
+    <d v="2024-09-11T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3430"/>
+    <x v="193"/>
+    <s v="Core"/>
+    <d v="2024-09-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3431"/>
+    <x v="194"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-13T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3432"/>
+    <x v="195"/>
+    <s v="Standard"/>
+    <d v="2024-09-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3433"/>
+    <x v="196"/>
+    <s v="Core"/>
+    <d v="2024-09-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3434"/>
+    <x v="197"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-16T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3435"/>
+    <x v="198"/>
+    <s v="Standard"/>
+    <d v="2024-09-17T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3436"/>
+    <x v="199"/>
+    <s v="Core"/>
+    <d v="2024-09-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3437"/>
+    <x v="200"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-19T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3438"/>
+    <x v="201"/>
+    <s v="Standard"/>
+    <d v="2024-09-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3439"/>
+    <x v="202"/>
+    <s v="Core"/>
+    <d v="2024-09-21T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3440"/>
+    <x v="203"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3441"/>
+    <x v="204"/>
+    <s v="Standard"/>
+    <d v="2024-09-23T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3442"/>
+    <x v="205"/>
+    <s v="Core"/>
+    <d v="2024-09-24T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3443"/>
+    <x v="206"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-25T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3444"/>
+    <x v="207"/>
+    <s v="Standard"/>
+    <d v="2024-09-26T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3445"/>
+    <x v="37"/>
+    <s v="Core"/>
+    <d v="2024-09-27T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3446"/>
+    <x v="208"/>
+    <s v="Ultimate"/>
+    <d v="2024-09-28T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3447"/>
+    <x v="209"/>
+    <s v="Standard"/>
+    <d v="2024-09-29T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3448"/>
+    <x v="210"/>
+    <s v="Core"/>
+    <d v="2024-09-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3449"/>
+    <x v="211"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3450"/>
+    <x v="212"/>
+    <s v="Standard"/>
+    <d v="2024-10-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3451"/>
+    <x v="213"/>
+    <s v="Core"/>
+    <d v="2024-10-03T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3452"/>
+    <x v="191"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-04T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3453"/>
+    <x v="45"/>
+    <s v="Standard"/>
+    <d v="2024-10-05T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3454"/>
+    <x v="214"/>
+    <s v="Core"/>
+    <d v="2024-10-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3455"/>
+    <x v="215"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-07T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3456"/>
+    <x v="216"/>
+    <s v="Standard"/>
+    <d v="2024-10-08T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3457"/>
+    <x v="217"/>
+    <s v="Core"/>
+    <d v="2024-10-09T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3458"/>
+    <x v="218"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-10T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3459"/>
+    <x v="219"/>
+    <s v="Standard"/>
+    <d v="2024-10-11T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3460"/>
+    <x v="127"/>
+    <s v="Core"/>
+    <d v="2024-10-12T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3461"/>
+    <x v="220"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-13T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3462"/>
+    <x v="221"/>
+    <s v="Standard"/>
+    <d v="2024-10-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3463"/>
+    <x v="222"/>
+    <s v="Core"/>
+    <d v="2024-10-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3464"/>
+    <x v="223"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-16T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3465"/>
+    <x v="224"/>
+    <s v="Standard"/>
+    <d v="2024-10-17T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3466"/>
+    <x v="225"/>
+    <s v="Core"/>
+    <d v="2024-10-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3467"/>
+    <x v="226"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-19T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3468"/>
+    <x v="227"/>
+    <s v="Standard"/>
+    <d v="2024-10-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3469"/>
+    <x v="228"/>
+    <s v="Core"/>
+    <d v="2024-10-21T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3470"/>
+    <x v="229"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3471"/>
+    <x v="230"/>
+    <s v="Standard"/>
+    <d v="2024-10-23T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3472"/>
+    <x v="231"/>
+    <s v="Core"/>
+    <d v="2024-10-24T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3473"/>
+    <x v="140"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-25T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3474"/>
+    <x v="232"/>
+    <s v="Standard"/>
+    <d v="2024-10-26T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3475"/>
+    <x v="233"/>
+    <s v="Core"/>
+    <d v="2024-10-27T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3476"/>
+    <x v="234"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-28T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3477"/>
+    <x v="235"/>
+    <s v="Standard"/>
+    <d v="2024-10-29T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3478"/>
+    <x v="236"/>
+    <s v="Core"/>
+    <d v="2024-10-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3479"/>
+    <x v="237"/>
+    <s v="Ultimate"/>
+    <d v="2024-10-31T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3480"/>
+    <x v="238"/>
+    <s v="Standard"/>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3481"/>
+    <x v="239"/>
+    <s v="Core"/>
+    <d v="2024-11-02T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3482"/>
+    <x v="240"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-03T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3483"/>
+    <x v="241"/>
+    <s v="Standard"/>
+    <d v="2024-11-04T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3484"/>
+    <x v="242"/>
+    <s v="Core"/>
+    <d v="2024-11-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3485"/>
+    <x v="243"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-06T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3486"/>
+    <x v="244"/>
+    <s v="Core"/>
+    <d v="2024-11-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3487"/>
+    <x v="245"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-08T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3488"/>
+    <x v="246"/>
+    <s v="Standard"/>
+    <d v="2024-11-09T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3489"/>
+    <x v="247"/>
+    <s v="Core"/>
+    <d v="2024-11-10T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3490"/>
+    <x v="248"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3491"/>
+    <x v="249"/>
+    <s v="Standard"/>
+    <d v="2024-11-12T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="3492"/>
+    <x v="250"/>
+    <s v="Core"/>
+    <d v="2024-11-13T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3493"/>
+    <x v="251"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-14T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3494"/>
+    <x v="252"/>
+    <s v="Standard"/>
+    <d v="2024-11-15T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3495"/>
+    <x v="253"/>
+    <s v="Core"/>
+    <d v="2024-11-16T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3496"/>
+    <x v="254"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-17T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3497"/>
+    <x v="255"/>
+    <s v="Standard"/>
+    <d v="2024-11-18T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3498"/>
+    <x v="256"/>
+    <s v="Core"/>
+    <d v="2024-11-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3499"/>
+    <x v="257"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-20T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3500"/>
+    <x v="258"/>
+    <s v="Standard"/>
+    <d v="2024-11-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3501"/>
+    <x v="259"/>
+    <s v="Core"/>
+    <d v="2024-11-22T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3502"/>
+    <x v="260"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-23T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3503"/>
+    <x v="119"/>
+    <s v="Standard"/>
+    <d v="2024-11-24T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3504"/>
+    <x v="261"/>
+    <s v="Core"/>
+    <d v="2024-11-25T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3505"/>
+    <x v="262"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-26T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3506"/>
+    <x v="263"/>
+    <s v="Standard"/>
+    <d v="2024-11-27T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3507"/>
+    <x v="264"/>
+    <s v="Core"/>
+    <d v="2024-11-28T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3508"/>
+    <x v="265"/>
+    <s v="Ultimate"/>
+    <d v="2024-11-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3509"/>
+    <x v="266"/>
+    <s v="Standard"/>
+    <d v="2024-11-30T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3510"/>
+    <x v="267"/>
+    <s v="Core"/>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3511"/>
+    <x v="268"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-02T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3512"/>
+    <x v="269"/>
+    <s v="Standard"/>
+    <d v="2024-12-03T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3513"/>
+    <x v="270"/>
+    <s v="Core"/>
+    <d v="2024-12-04T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="3514"/>
+    <x v="271"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-05T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <n v="3515"/>
+    <x v="130"/>
+    <s v="Standard"/>
+    <d v="2024-12-06T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3516"/>
+    <x v="131"/>
+    <s v="Core"/>
+    <d v="2024-12-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3517"/>
+    <x v="181"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-08T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="3518"/>
+    <x v="272"/>
+    <s v="Standard"/>
+    <d v="2024-12-09T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="3519"/>
+    <x v="273"/>
+    <s v="Core"/>
+    <d v="2024-12-10T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="3520"/>
+    <x v="274"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="3521"/>
+    <x v="275"/>
+    <s v="Standard"/>
+    <d v="2024-12-12T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="3522"/>
+    <x v="276"/>
+    <s v="Core"/>
+    <d v="2024-12-13T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="3523"/>
+    <x v="277"/>
+    <s v="Ultimate"/>
+    <d v="2024-12-14T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <n v="3524"/>
+    <x v="278"/>
+    <s v="Standard"/>
+    <d v="2024-12-15T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="Yes"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="3525"/>
+    <x v="279"/>
+    <s v="Core"/>
+    <d v="2024-12-16T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="-"/>
+    <s v="No"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73046DD2-38AA-484A-B28C-C17DCB1F2C20}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B20:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CA51761-CCD9-4D01-A266-DB665D99DC92}" name="tbl_annual_total" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B9:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -1958,26 +7193,26 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2298,16 +7533,16 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,8 +7553,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +7568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +7576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2349,7 +7584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +7592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +7612,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2386,7 +7621,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2395,7 +7630,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2404,7 +7639,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2413,7 +7648,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2422,7 +7657,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2431,7 +7666,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2440,7 +7675,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2449,7 +7684,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2471,28 +7706,28 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I294"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:M294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +7768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>3231</v>
       </c>
@@ -2574,7 +7809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3232</v>
       </c>
@@ -2615,7 +7850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3233</v>
       </c>
@@ -2656,7 +7891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3234</v>
       </c>
@@ -2697,7 +7932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3235</v>
       </c>
@@ -2738,7 +7973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3236</v>
       </c>
@@ -2779,7 +8014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>3237</v>
       </c>
@@ -2820,7 +8055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>3238</v>
       </c>
@@ -2861,7 +8096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3239</v>
       </c>
@@ -2902,7 +8137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3240</v>
       </c>
@@ -2943,7 +8178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>3241</v>
       </c>
@@ -2984,7 +8219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3242</v>
       </c>
@@ -3025,7 +8260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>3243</v>
       </c>
@@ -3066,7 +8301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>3244</v>
       </c>
@@ -3107,7 +8342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>3245</v>
       </c>
@@ -3148,7 +8383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>3246</v>
       </c>
@@ -3189,7 +8424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>3247</v>
       </c>
@@ -3230,7 +8465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>3248</v>
       </c>
@@ -3271,7 +8506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3249</v>
       </c>
@@ -3312,7 +8547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>3250</v>
       </c>
@@ -3353,7 +8588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3251</v>
       </c>
@@ -3394,7 +8629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>3252</v>
       </c>
@@ -3435,7 +8670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>3253</v>
       </c>
@@ -3476,7 +8711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>3254</v>
       </c>
@@ -3517,7 +8752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>3255</v>
       </c>
@@ -3558,7 +8793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>3256</v>
       </c>
@@ -3599,7 +8834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>3257</v>
       </c>
@@ -3640,7 +8875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>3258</v>
       </c>
@@ -3681,7 +8916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>3259</v>
       </c>
@@ -3722,7 +8957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3260</v>
       </c>
@@ -3763,7 +8998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>3261</v>
       </c>
@@ -3804,7 +9039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>3262</v>
       </c>
@@ -3845,7 +9080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>3263</v>
       </c>
@@ -3886,7 +9121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>3264</v>
       </c>
@@ -3927,7 +9162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>3265</v>
       </c>
@@ -3968,7 +9203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>3266</v>
       </c>
@@ -4009,7 +9244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>3267</v>
       </c>
@@ -4050,7 +9285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3268</v>
       </c>
@@ -4091,7 +9326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3269</v>
       </c>
@@ -4132,7 +9367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>3270</v>
       </c>
@@ -4173,7 +9408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>3271</v>
       </c>
@@ -4214,7 +9449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>3272</v>
       </c>
@@ -4255,7 +9490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>3273</v>
       </c>
@@ -4296,7 +9531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>3274</v>
       </c>
@@ -4337,7 +9572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>3275</v>
       </c>
@@ -4378,7 +9613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>3276</v>
       </c>
@@ -4419,7 +9654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>3277</v>
       </c>
@@ -4460,7 +9695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>3278</v>
       </c>
@@ -4501,7 +9736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>3279</v>
       </c>
@@ -4542,7 +9777,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>3280</v>
       </c>
@@ -4583,7 +9818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>3281</v>
       </c>
@@ -4624,7 +9859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>3282</v>
       </c>
@@ -4665,7 +9900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>3283</v>
       </c>
@@ -4706,7 +9941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>3284</v>
       </c>
@@ -4747,7 +9982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>3285</v>
       </c>
@@ -4788,7 +10023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>3286</v>
       </c>
@@ -4829,7 +10064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>3287</v>
       </c>
@@ -4870,7 +10105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>3288</v>
       </c>
@@ -4911,7 +10146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>3289</v>
       </c>
@@ -4952,7 +10187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>3290</v>
       </c>
@@ -4993,7 +10228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>3291</v>
       </c>
@@ -5034,7 +10269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>3292</v>
       </c>
@@ -5075,7 +10310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>3293</v>
       </c>
@@ -5116,7 +10351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>3294</v>
       </c>
@@ -5157,7 +10392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>3295</v>
       </c>
@@ -5198,7 +10433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>3296</v>
       </c>
@@ -5239,7 +10474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>3297</v>
       </c>
@@ -5280,7 +10515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>3298</v>
       </c>
@@ -5321,7 +10556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>3299</v>
       </c>
@@ -5362,7 +10597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>3300</v>
       </c>
@@ -5403,7 +10638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>3301</v>
       </c>
@@ -5444,7 +10679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>3302</v>
       </c>
@@ -5485,7 +10720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>3303</v>
       </c>
@@ -5526,7 +10761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>3304</v>
       </c>
@@ -5567,7 +10802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>3305</v>
       </c>
@@ -5608,7 +10843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>3306</v>
       </c>
@@ -5649,7 +10884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>3307</v>
       </c>
@@ -5690,7 +10925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>3308</v>
       </c>
@@ -5731,7 +10966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>3309</v>
       </c>
@@ -5772,7 +11007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>3310</v>
       </c>
@@ -5813,7 +11048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>3311</v>
       </c>
@@ -5854,7 +11089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>3312</v>
       </c>
@@ -5895,7 +11130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>3313</v>
       </c>
@@ -5936,7 +11171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>3314</v>
       </c>
@@ -5977,7 +11212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>3315</v>
       </c>
@@ -6018,7 +11253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>3316</v>
       </c>
@@ -6059,7 +11294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>3317</v>
       </c>
@@ -6100,7 +11335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>3318</v>
       </c>
@@ -6141,7 +11376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>3319</v>
       </c>
@@ -6182,7 +11417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>3320</v>
       </c>
@@ -6223,7 +11458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>3321</v>
       </c>
@@ -6264,7 +11499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>3322</v>
       </c>
@@ -6305,7 +11540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>3323</v>
       </c>
@@ -6346,7 +11581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>3324</v>
       </c>
@@ -6387,7 +11622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>3325</v>
       </c>
@@ -6428,7 +11663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>3326</v>
       </c>
@@ -6469,7 +11704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>3327</v>
       </c>
@@ -6510,7 +11745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>3328</v>
       </c>
@@ -6551,7 +11786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>3329</v>
       </c>
@@ -6592,7 +11827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>3330</v>
       </c>
@@ -6633,7 +11868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>3331</v>
       </c>
@@ -6674,7 +11909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>3332</v>
       </c>
@@ -6715,7 +11950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>3333</v>
       </c>
@@ -6756,7 +11991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>3334</v>
       </c>
@@ -6797,7 +12032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>3335</v>
       </c>
@@ -6838,7 +12073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>3336</v>
       </c>
@@ -6879,7 +12114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>3337</v>
       </c>
@@ -6920,7 +12155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>3338</v>
       </c>
@@ -6961,7 +12196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>3339</v>
       </c>
@@ -7002,7 +12237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>3340</v>
       </c>
@@ -7043,7 +12278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>3341</v>
       </c>
@@ -7084,7 +12319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>3342</v>
       </c>
@@ -7125,7 +12360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>3343</v>
       </c>
@@ -7166,7 +12401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>3344</v>
       </c>
@@ -7207,7 +12442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>3345</v>
       </c>
@@ -7248,7 +12483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>3346</v>
       </c>
@@ -7289,7 +12524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>3347</v>
       </c>
@@ -7330,7 +12565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>3348</v>
       </c>
@@ -7371,7 +12606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>3349</v>
       </c>
@@ -7412,7 +12647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>3350</v>
       </c>
@@ -7453,7 +12688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>3351</v>
       </c>
@@ -7494,7 +12729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>3352</v>
       </c>
@@ -7535,7 +12770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>3353</v>
       </c>
@@ -7576,7 +12811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>3354</v>
       </c>
@@ -7617,7 +12852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>3355</v>
       </c>
@@ -7658,7 +12893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>3356</v>
       </c>
@@ -7699,7 +12934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>3357</v>
       </c>
@@ -7740,7 +12975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>3358</v>
       </c>
@@ -7781,7 +13016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>3359</v>
       </c>
@@ -7822,7 +13057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>3360</v>
       </c>
@@ -7863,7 +13098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>3361</v>
       </c>
@@ -7904,7 +13139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>3362</v>
       </c>
@@ -7945,7 +13180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>3363</v>
       </c>
@@ -7986,7 +13221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>3364</v>
       </c>
@@ -8027,7 +13262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>3365</v>
       </c>
@@ -8068,7 +13303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>3366</v>
       </c>
@@ -8109,7 +13344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>3367</v>
       </c>
@@ -8150,7 +13385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>3368</v>
       </c>
@@ -8191,7 +13426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>3369</v>
       </c>
@@ -8232,7 +13467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>3370</v>
       </c>
@@ -8273,7 +13508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>3371</v>
       </c>
@@ -8314,7 +13549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>3372</v>
       </c>
@@ -8355,7 +13590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>3373</v>
       </c>
@@ -8396,7 +13631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>3374</v>
       </c>
@@ -8437,7 +13672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>3375</v>
       </c>
@@ -8478,7 +13713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>3376</v>
       </c>
@@ -8519,7 +13754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>3377</v>
       </c>
@@ -8560,7 +13795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>3378</v>
       </c>
@@ -8601,7 +13836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>3379</v>
       </c>
@@ -8642,7 +13877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>3380</v>
       </c>
@@ -8683,7 +13918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>3381</v>
       </c>
@@ -8724,7 +13959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>3382</v>
       </c>
@@ -8765,7 +14000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>3383</v>
       </c>
@@ -8806,7 +14041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>3384</v>
       </c>
@@ -8847,7 +14082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>3385</v>
       </c>
@@ -8888,7 +14123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>3386</v>
       </c>
@@ -8929,7 +14164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>3387</v>
       </c>
@@ -8970,7 +14205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>3388</v>
       </c>
@@ -9011,7 +14246,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>3389</v>
       </c>
@@ -9052,7 +14287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>3390</v>
       </c>
@@ -9093,7 +14328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>3391</v>
       </c>
@@ -9134,7 +14369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>3392</v>
       </c>
@@ -9175,7 +14410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>3393</v>
       </c>
@@ -9216,7 +14451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>3394</v>
       </c>
@@ -9257,7 +14492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>3395</v>
       </c>
@@ -9298,7 +14533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>3396</v>
       </c>
@@ -9339,7 +14574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>3397</v>
       </c>
@@ -9380,7 +14615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>3398</v>
       </c>
@@ -9421,7 +14656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>3399</v>
       </c>
@@ -9462,7 +14697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>3400</v>
       </c>
@@ -9503,7 +14738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>3401</v>
       </c>
@@ -9544,7 +14779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>3402</v>
       </c>
@@ -9585,7 +14820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>3403</v>
       </c>
@@ -9626,7 +14861,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>3404</v>
       </c>
@@ -9667,7 +14902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>3405</v>
       </c>
@@ -9708,7 +14943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>3406</v>
       </c>
@@ -9749,7 +14984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>3407</v>
       </c>
@@ -9790,7 +15025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>3408</v>
       </c>
@@ -9831,7 +15066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>3409</v>
       </c>
@@ -9872,7 +15107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>3410</v>
       </c>
@@ -9913,7 +15148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>3411</v>
       </c>
@@ -9954,7 +15189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>3412</v>
       </c>
@@ -9995,7 +15230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>3413</v>
       </c>
@@ -10036,7 +15271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>3414</v>
       </c>
@@ -10077,7 +15312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>3415</v>
       </c>
@@ -10118,7 +15353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>3416</v>
       </c>
@@ -10159,7 +15394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>3417</v>
       </c>
@@ -10200,7 +15435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>3418</v>
       </c>
@@ -10241,7 +15476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>3419</v>
       </c>
@@ -10282,7 +15517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>3420</v>
       </c>
@@ -10323,7 +15558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>3421</v>
       </c>
@@ -10364,7 +15599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>3422</v>
       </c>
@@ -10405,7 +15640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>3423</v>
       </c>
@@ -10446,7 +15681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>3424</v>
       </c>
@@ -10487,7 +15722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>3425</v>
       </c>
@@ -10528,7 +15763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>3426</v>
       </c>
@@ -10569,7 +15804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>3427</v>
       </c>
@@ -10610,7 +15845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>3428</v>
       </c>
@@ -10651,7 +15886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>3429</v>
       </c>
@@ -10692,7 +15927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>3430</v>
       </c>
@@ -10733,7 +15968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>3431</v>
       </c>
@@ -10774,7 +16009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>3432</v>
       </c>
@@ -10815,7 +16050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>3433</v>
       </c>
@@ -10856,7 +16091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>3434</v>
       </c>
@@ -10897,7 +16132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>3435</v>
       </c>
@@ -10938,7 +16173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>3436</v>
       </c>
@@ -10979,7 +16214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>3437</v>
       </c>
@@ -11020,7 +16255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>3438</v>
       </c>
@@ -11061,7 +16296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>3439</v>
       </c>
@@ -11102,7 +16337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>3440</v>
       </c>
@@ -11143,7 +16378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>3441</v>
       </c>
@@ -11184,7 +16419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>3442</v>
       </c>
@@ -11225,7 +16460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>3443</v>
       </c>
@@ -11266,7 +16501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>3444</v>
       </c>
@@ -11307,7 +16542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>3445</v>
       </c>
@@ -11348,7 +16583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>3446</v>
       </c>
@@ -11389,7 +16624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>3447</v>
       </c>
@@ -11430,7 +16665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>3448</v>
       </c>
@@ -11471,7 +16706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>3449</v>
       </c>
@@ -11512,7 +16747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>3450</v>
       </c>
@@ -11553,7 +16788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>3451</v>
       </c>
@@ -11594,7 +16829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>3452</v>
       </c>
@@ -11635,7 +16870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>3453</v>
       </c>
@@ -11676,7 +16911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>3454</v>
       </c>
@@ -11717,7 +16952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>3455</v>
       </c>
@@ -11758,7 +16993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>3456</v>
       </c>
@@ -11799,7 +17034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>3457</v>
       </c>
@@ -11840,7 +17075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>3458</v>
       </c>
@@ -11881,7 +17116,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>3459</v>
       </c>
@@ -11922,7 +17157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>3460</v>
       </c>
@@ -11963,7 +17198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>3461</v>
       </c>
@@ -12004,7 +17239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>3462</v>
       </c>
@@ -12045,7 +17280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>3463</v>
       </c>
@@ -12086,7 +17321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>3464</v>
       </c>
@@ -12127,7 +17362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>3465</v>
       </c>
@@ -12168,7 +17403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>3466</v>
       </c>
@@ -12209,7 +17444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>3467</v>
       </c>
@@ -12250,7 +17485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>3468</v>
       </c>
@@ -12291,7 +17526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>3469</v>
       </c>
@@ -12332,7 +17567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>3470</v>
       </c>
@@ -12373,7 +17608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>3471</v>
       </c>
@@ -12414,7 +17649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>3472</v>
       </c>
@@ -12455,7 +17690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>3473</v>
       </c>
@@ -12496,7 +17731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>3474</v>
       </c>
@@ -12537,7 +17772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>3475</v>
       </c>
@@ -12578,7 +17813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>3476</v>
       </c>
@@ -12619,7 +17854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>3477</v>
       </c>
@@ -12660,7 +17895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>3478</v>
       </c>
@@ -12701,7 +17936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>3479</v>
       </c>
@@ -12742,7 +17977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>3480</v>
       </c>
@@ -12783,7 +18018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>3481</v>
       </c>
@@ -12824,7 +18059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>3482</v>
       </c>
@@ -12865,7 +18100,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>3483</v>
       </c>
@@ -12906,7 +18141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>3484</v>
       </c>
@@ -12947,7 +18182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>3485</v>
       </c>
@@ -12988,7 +18223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>3486</v>
       </c>
@@ -13029,7 +18264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>3487</v>
       </c>
@@ -13070,7 +18305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>3488</v>
       </c>
@@ -13111,7 +18346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>3489</v>
       </c>
@@ -13152,7 +18387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>3490</v>
       </c>
@@ -13193,7 +18428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>3491</v>
       </c>
@@ -13234,7 +18469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>3492</v>
       </c>
@@ -13275,7 +18510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>3493</v>
       </c>
@@ -13316,7 +18551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>3494</v>
       </c>
@@ -13357,7 +18592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>3495</v>
       </c>
@@ -13398,7 +18633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>3496</v>
       </c>
@@ -13439,7 +18674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>3497</v>
       </c>
@@ -13480,7 +18715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>3498</v>
       </c>
@@ -13521,7 +18756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>3499</v>
       </c>
@@ -13562,7 +18797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>3500</v>
       </c>
@@ -13603,7 +18838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>3501</v>
       </c>
@@ -13644,7 +18879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>3502</v>
       </c>
@@ -13685,7 +18920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>3503</v>
       </c>
@@ -13726,7 +18961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>3504</v>
       </c>
@@ -13767,7 +19002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>3505</v>
       </c>
@@ -13808,7 +19043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>3506</v>
       </c>
@@ -13849,7 +19084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>3507</v>
       </c>
@@ -13890,7 +19125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>3508</v>
       </c>
@@ -13931,7 +19166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>3509</v>
       </c>
@@ -13972,7 +19207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>3510</v>
       </c>
@@ -14013,7 +19248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>3511</v>
       </c>
@@ -14054,7 +19289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>3512</v>
       </c>
@@ -14095,7 +19330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>3513</v>
       </c>
@@ -14136,7 +19371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>3514</v>
       </c>
@@ -14177,7 +19412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>3515</v>
       </c>
@@ -14218,7 +19453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>3516</v>
       </c>
@@ -14259,7 +19494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>3517</v>
       </c>
@@ -14300,7 +19535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>3518</v>
       </c>
@@ -14341,7 +19576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>3519</v>
       </c>
@@ -14382,7 +19617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>3520</v>
       </c>
@@ -14423,7 +19658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>3521</v>
       </c>
@@ -14464,7 +19699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>3522</v>
       </c>
@@ -14505,7 +19740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>3523</v>
       </c>
@@ -14546,7 +19781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>3524</v>
       </c>
@@ -14587,7 +19822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>3525</v>
       </c>
@@ -14642,29 +19877,135 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="15">
+        <v>7633</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1754</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -14676,52 +20017,55 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
-    <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <xsd:import namespace="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF9F97E47C51E343AF773F1049776F76" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c2a43ea632fa60fb25310d020f8b587">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d39ee163-50ae-4a2c-bc37-3370ad9828bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38ae0587694d0d5e4213508640df1d02" ns3:_="">
+    <xsd:import namespace="d39ee163-50ae-4a2c-bc37-3370ad9828bc"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -14729,7 +20073,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="851b35d3-0456-4d6a-bc2f-da927e91d158" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d39ee163-50ae-4a2c-bc37-3370ad9828bc" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -14742,112 +20086,27 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="44a7fbd4-9dae-4371-bb8c-f658cfc5cb1c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="19483571-f922-4e8e-9c1c-26f0a2252132" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a4ca5b0e-bf34-4fb2-bc21-1657b419a556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="19483571-f922-4e8e-9c1c-26f0a2252132">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -14859,8 +20118,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -14949,34 +20208,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d39ee163-50ae-4a2c-bc37-3370ad9828bc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FB44C0-177E-4C68-A86B-0FF480D8A15E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d39ee163-50ae-4a2c-bc37-3370ad9828bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Xbox_Game_Pass_Subscriptions_Sales.xlsx
+++ b/Xbox_Game_Pass_Subscriptions_Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Personal Projects\DIO\xbox-game-pass-subscriptions-salles-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA24E451-9C56-4F62-97FC-AE2DF7EEF783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA37EA2-DCBE-4086-8812-E48D72858208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -18,11 +18,22 @@
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Subscription_Type">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1227,9 +1238,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5BF6A8"/>
       <color rgb="FF22C55E"/>
       <color rgb="FFE8E6E9"/>
-      <color rgb="FF5BF6A8"/>
       <color rgb="FF000000"/>
       <color rgb="FFE0E0E0"/>
       <color rgb="FFEDEDED"/>
@@ -1248,6 +1259,863 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Xbox_Game_Pass_Subscriptions_Sales.xlsx]Calculations!PivotTable2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5BF6A8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calculations!$B$21:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$C$21:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BF5-4B0D-94C5-B7E8AEA6BE5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1591488639"/>
+        <c:axId val="1591502559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1591488639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1591502559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1591502559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1591488639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1987,6 +2855,120 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A272A4-BB25-C7E7-6700-263BFCEAECF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Subscription Type">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE85526-70DF-4AE4-02CB-B238966FD232}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Subscription Type"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2948940" y="3108960"/>
+              <a:ext cx="1828800" cy="2581275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2330,7 +3312,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1867138719"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6767,7 +7749,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73046DD2-38AA-484A-B28C-C17DCB1F2C20}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73046DD2-38AA-484A-B28C-C17DCB1F2C20}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B20:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -6822,11 +7804,22 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
+    <pageField fld="6" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7183,6 +8176,29 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Subscription_Type" xr10:uid="{1290F47E-1F0F-4559-8DFB-BB8125B29902}" sourceName="Subscription Type">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1867138719">
+      <items count="3">
+        <i x="1"/>
+        <i x="0"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Subscription Type" xr10:uid="{B7DC93E1-F303-4773-A6AD-9C822B764448}" cache="Slicer_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6" rowHeight="247650"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
@@ -7533,8 +8549,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19879,8 +20895,8 @@
   </sheetPr>
   <dimension ref="B3:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19967,7 +20983,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -19983,7 +20999,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="15">
-        <v>217</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -19991,7 +21007,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="15">
-        <v>1537</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -19999,13 +21015,20 @@
         <v>316</v>
       </c>
       <c r="C23" s="15">
-        <v>1754</v>
+        <v>2308</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId5"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Xbox_Game_Pass_Subscriptions_Sales.xlsx
+++ b/Xbox_Game_Pass_Subscriptions_Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Personal Projects\DIO\xbox-game-pass-subscriptions-salles-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA37EA2-DCBE-4086-8812-E48D72858208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D12E2BA-C47D-4D78-8CC8-5ECBA2B392B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>

--- a/Xbox_Game_Pass_Subscriptions_Sales.xlsx
+++ b/Xbox_Game_Pass_Subscriptions_Sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Personal Projects\DIO\xbox-game-pass-subscriptions-salles-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D12E2BA-C47D-4D78-8CC8-5ECBA2B392B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284B19B-C18C-4D00-9206-66753CDEE61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="321">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1051,15 +1052,18 @@
       <t>( contendo todas as assinaturas agregadas )</t>
     </r>
   </si>
+  <si>
+    <t>XBOX GAME PASS SUBSCRIPTION SALLES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,6 +1090,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF22C55E"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1135,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1152,13 +1164,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1185,13 +1206,56 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1235,24 +1299,742 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{313518BB-6A92-4C63-A7C1-F9886D7ADFD5}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF22C55E"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF2AE6B1"/>
+      <color rgb="FFE8E6E9"/>
       <color rgb="FF5BF6A8"/>
-      <color rgb="FF22C55E"/>
-      <color rgb="FFE8E6E9"/>
       <color rgb="FF000000"/>
       <color rgb="FFE0E0E0"/>
       <color rgb="FFEDEDED"/>
       <color rgb="FFF7F8FC"/>
-      <color rgb="FF2AE6B1"/>
       <color rgb="FF9BC848"/>
-      <color rgb="FFE70011"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="24">
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="SlicerStyleLight6 2">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -1276,7 +2058,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Xbox_Game_Pass_Subscriptions_Sales.xlsx]Calculations!PivotTable2</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1313,6 +2095,118 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:srgbClr val="5BF6A8"/>
@@ -1419,17 +2313,17 @@
                 <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>806</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1502</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BF5-4B0D-94C5-B7E8AEA6BE5D}"/>
+              <c16:uniqueId val="{00000000-5617-4980-A17B-BBB86CE79363}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1531,9 +2425,7 @@
     </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -2855,63 +3747,194 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1257301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50673</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A272A4-BB25-C7E7-6700-263BFCEAECF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB97C64-D137-4D5C-A992-A9D38E584DEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8911" r="73597"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="180975"/>
+          <a:ext cx="504826" cy="984123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20CFEAE-B255-4297-C78C-DB35E15EB4A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2571751" y="2181225"/>
+          <a:ext cx="4838700" cy="2943225"/>
+          <a:chOff x="2781301" y="2238375"/>
+          <a:chExt cx="4838700" cy="2943225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A17D16-3DD3-F8D8-48F1-A9C566B40CBF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2781301" y="2238375"/>
+            <a:ext cx="4838700" cy="2932345"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 4703"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="Chart 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A1D974-93BE-4814-A46E-01F0C5A75E28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="3011805" y="2438400"/>
+          <a:ext cx="4572000" cy="2743200"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Subscription Type">
+            <xdr:cNvPr id="6" name="Subscription Type">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE85526-70DF-4AE4-02CB-B238966FD232}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EB29BA-F3C3-4688-89C9-6555BFB05331}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2938,7 +3961,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2948940" y="3108960"/>
+              <a:off x="142875" y="2392680"/>
               <a:ext cx="1828800" cy="2581275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7749,7 +8772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73046DD2-38AA-484A-B28C-C17DCB1F2C20}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73046DD2-38AA-484A-B28C-C17DCB1F2C20}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B20:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7804,13 +8827,22 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="2" hier="-1"/>
+    <pageField fld="6" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7833,7 +8865,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CA51761-CCD9-4D01-A266-DB665D99DC92}" name="tbl_annual_total" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CA51761-CCD9-4D01-A266-DB665D99DC92}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B9:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -8177,16 +9209,16 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Subscription_Type" xr10:uid="{1290F47E-1F0F-4559-8DFB-BB8125B29902}" sourceName="Subscription Type">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Subscription_Type" xr10:uid="{D82268F0-43BC-46B7-8355-6B302FB9582A}" sourceName="Subscription Type">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable2"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1867138719">
       <items count="3">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -8195,12 +9227,12 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Subscription Type" xr10:uid="{B7DC93E1-F303-4773-A6AD-9C822B764448}" cache="Slicer_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6" rowHeight="247650"/>
+  <slicer name="Subscription Type" xr10:uid="{60585E00-B150-4915-B593-597CE9BB7EC5}" cache="Slicer_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6 2" rowHeight="247650"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -8209,19 +9241,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8550,7 +9582,7 @@
   <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20895,8 +21927,8 @@
   </sheetPr>
   <dimension ref="B3:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20983,7 +22015,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -20999,7 +22031,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="15">
-        <v>806</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -21007,7 +22039,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="15">
-        <v>1502</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -21015,62 +22047,840 @@
         <v>316</v>
       </c>
       <c r="C23" s="15">
-        <v>2308</v>
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
+  <dimension ref="A1:O259"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId5"/>
+        <x14:slicer r:id="rId2"/>
       </x14:slicerList>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A2:A7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21232,6 +23042,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -21243,14 +23061,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Xbox_Game_Pass_Subscriptions_Sales.xlsx
+++ b/Xbox_Game_Pass_Subscriptions_Sales.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Personal Projects\DIO\xbox-game-pass-subscriptions-salles-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284B19B-C18C-4D00-9206-66753CDEE61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC05AF-EE20-4FB5-AB5F-B3491D39AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -23,9 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="325">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1009,22 +1008,6 @@
   </si>
   <si>
     <t>Sum of Total Value</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pergunta 02 - Qual o faturamento </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TOTAL de vendas de planos ANUAIS, separado por auto renovação ou não. </t>
-    </r>
   </si>
   <si>
     <r>
@@ -1054,6 +1037,34 @@
   </si>
   <si>
     <t>XBOX GAME PASS SUBSCRIPTION SALLES</t>
+  </si>
+  <si>
+    <t>Pergunta 03 - Total de vendas de assinaturas EA Play</t>
+  </si>
+  <si>
+    <t>Sum of EA Play Season Pass</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pergunta 02 - Qual o faturamento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TOTAL de vendas de planos, separados por auto renovação ou não. </t>
+    </r>
+  </si>
+  <si>
+    <t>Pergunta 04 - Total de vendas de assinaturas Minecraft season pass</t>
+  </si>
+  <si>
+    <t>Sum of Minecraft Season Pass Price</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1107,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="26"/>
       <color rgb="FF22C55E"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1147,7 +1158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1164,22 +1175,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1206,9 +1208,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1216,46 +1220,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF22C55E"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1298,18 +1262,58 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{313518BB-6A92-4C63-A7C1-F9886D7ADFD5}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF22C55E"/>
+      <color rgb="FF2AE6B1"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF2AE6B1"/>
       <color rgb="FFE8E6E9"/>
       <color rgb="FF5BF6A8"/>
       <color rgb="FF000000"/>
@@ -1321,471 +1325,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="24">
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
+      <x14:dxfs count="8">
         <dxf>
           <font>
             <color rgb="FF000000"/>
@@ -2061,37 +1601,7 @@
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -2235,13 +1745,17 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="22C55E"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="43137"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -2251,7 +1765,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2292,6 +1806,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="22C55E"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="43137"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Calculations!$B$21:$B$23</c:f>
@@ -2453,7 +2028,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -3445,7 +3019,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>114297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3466,10 +3040,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057275" y="5219699"/>
-          <a:ext cx="1549476" cy="721996"/>
-          <a:chOff x="3495675" y="5400674"/>
-          <a:chExt cx="1549476" cy="752476"/>
+          <a:off x="1057275" y="5219697"/>
+          <a:ext cx="1549476" cy="721998"/>
+          <a:chOff x="3495675" y="5400672"/>
+          <a:chExt cx="1549476" cy="752478"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -3499,8 +3073,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3998608" y="5400674"/>
-            <a:ext cx="555497" cy="609599"/>
+            <a:off x="3998608" y="5400672"/>
+            <a:ext cx="555497" cy="609598"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3560,7 +3134,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3608,7 +3182,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3763,7 +3337,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1257301</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>50673</xdr:rowOff>
+      <xdr:rowOff>355473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3807,14 +3381,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3829,10 +3403,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2571751" y="2181225"/>
-          <a:ext cx="4838700" cy="2943225"/>
+          <a:off x="2564131" y="3952875"/>
+          <a:ext cx="8964929" cy="2975609"/>
           <a:chOff x="2781301" y="2238375"/>
-          <a:chExt cx="4838700" cy="2943225"/>
+          <a:chExt cx="4838700" cy="2943224"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3902,8 +3476,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="3011805" y="2438400"/>
-          <a:ext cx="4572000" cy="2743200"/>
+          <a:off x="2816260" y="2602038"/>
+          <a:ext cx="4767547" cy="2579561"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3918,17 +3492,17 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>278130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Subscription Type">
@@ -3951,7 +3525,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3990,6 +3564,761 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210503</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>489915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99685</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63A4678-ABCB-AAA7-BCC7-5BBA2928087B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2565083" y="1663395"/>
+          <a:ext cx="8918257" cy="1697650"/>
+          <a:chOff x="2549843" y="1533855"/>
+          <a:chExt cx="8918257" cy="1697650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Group 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1C0535-21A1-DFE8-1B7D-14C0FE548723}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2549843" y="1541148"/>
+            <a:ext cx="3736657" cy="1683065"/>
+            <a:chOff x="2557463" y="1419226"/>
+            <a:chExt cx="5048250" cy="2095499"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F6919D-7BCF-CC5B-AA6E-C0D31E97160A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2557463" y="1495425"/>
+              <a:ext cx="5048250" cy="2019300"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 3642"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="12" name="Group 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0D21C7-A1F6-E0BA-F995-04D6C7523F18}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="2862263" y="2157412"/>
+              <a:ext cx="4438650" cy="1129427"/>
+              <a:chOff x="3114675" y="2157412"/>
+              <a:chExt cx="4438650" cy="1129427"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="Calculations!E34">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0F8C0B-A727-4466-B2CC-011397BE9775}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4543426" y="2222447"/>
+                <a:ext cx="3009899" cy="999356"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 3642"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{FCACDCE1-A338-4BB1-949A-1872558D43FB}" type="TxLink">
+                  <a:rPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="22C55E"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Narrow"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t> R$ 600.00 </a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:srgbClr val="22C55E"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="9" name="Imagem 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F98C98-290C-487E-8515-15C47E067839}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3114675" y="2157412"/>
+                <a:ext cx="1181100" cy="1129427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Rectangle: Top Corners Rounded 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F842BAD-60FF-8CD6-9247-0A689A7DC1B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2557463" y="1419226"/>
+              <a:ext cx="5048250" cy="483614"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="22C55E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>TOTAL</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> SUBSCRIPTIONS EA PLAY SEASON PASS</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="24" name="Group 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E8232C-F9F0-E2FF-39A5-8952967BC281}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7392353" y="1533855"/>
+            <a:ext cx="4075747" cy="1697650"/>
+            <a:chOff x="8024813" y="1452564"/>
+            <a:chExt cx="5048250" cy="2095499"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61897ECE-AA5B-7ABB-91B1-9FB49DE2E6F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8024813" y="1528763"/>
+              <a:ext cx="5048250" cy="2019300"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 3642"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Rectangle: Top Corners Rounded 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273F7830-7E3D-782C-514F-46FE788FEC67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8024813" y="1452564"/>
+              <a:ext cx="5048250" cy="483614"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="22C55E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>TOTAL</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> SUBSCRIPTIONS EA PLAY SEASON PASS</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="23" name="Group 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F454748-824A-F178-59F3-C632F1DA5059}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8291513" y="2255785"/>
+              <a:ext cx="4476750" cy="999356"/>
+              <a:chOff x="8291513" y="2255785"/>
+              <a:chExt cx="4476750" cy="999356"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="Calculations!E46">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1834CB61-16BE-CDFE-2852-C754DAC2A87A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9758364" y="2255785"/>
+                <a:ext cx="3009899" cy="999356"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 3642"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{940F0980-4924-4080-BE47-B4D4E84C7E3E}" type="TxLink">
+                  <a:rPr lang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="22C55E"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Narrow"/>
+                  </a:rPr>
+                  <a:t> R$ 940.00 </a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="3200">
+                  <a:solidFill>
+                    <a:srgbClr val="22C55E"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="20" name="Agrupar 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FF55D5-532E-48C2-8E7D-00FF9E1BBD4A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="8291513" y="2439235"/>
+                <a:ext cx="1357312" cy="632457"/>
+                <a:chOff x="3495675" y="5400672"/>
+                <a:chExt cx="1549476" cy="752478"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="21" name="Imagem 15">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0A1DFF-51EB-1F69-A7C1-60101D0900DD}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+                  <a:extLst>
+                    <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                      <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3998608" y="5400672"/>
+                  <a:ext cx="555497" cy="609598"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="22" name="Gráfico 13">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8D1634-5AC0-007A-1C44-A4432FD2DE15}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+                  <a:extLst>
+                    <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                      <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3495675" y="5895937"/>
+                  <a:ext cx="1549476" cy="257213"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+          </xdr:grpSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle: Top Corners Rounded 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B0A24C-1152-4B4C-BB03-76709F5468A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567940" y="3931920"/>
+          <a:ext cx="8961120" cy="388430"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="22C55E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TOTAL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> SUBSCRIPTIONS XBOX GAME PASS</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4289,7 +4618,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Plan" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Ultimate"/>
+        <s v="Core"/>
+        <s v="Standard"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Start Date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-12-17T00:00:00"/>
@@ -4315,7 +4648,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="EA Play Season Pass" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="164">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30"/>
@@ -4346,12 +4682,12 @@
   <r>
     <n v="3231"/>
     <x v="0"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-01-01T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4361,12 +4697,12 @@
   <r>
     <n v="3232"/>
     <x v="1"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-01-15T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4376,12 +4712,12 @@
   <r>
     <n v="3233"/>
     <x v="2"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-02-10T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4391,12 +4727,12 @@
   <r>
     <n v="3234"/>
     <x v="3"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-02-20T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4406,12 +4742,12 @@
   <r>
     <n v="3235"/>
     <x v="4"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-05T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4421,12 +4757,12 @@
   <r>
     <n v="3236"/>
     <x v="5"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-02T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4436,12 +4772,12 @@
   <r>
     <n v="3237"/>
     <x v="6"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-03T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4451,12 +4787,12 @@
   <r>
     <n v="3238"/>
     <x v="7"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-04T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4466,12 +4802,12 @@
   <r>
     <n v="3239"/>
     <x v="8"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-05T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4481,12 +4817,12 @@
   <r>
     <n v="3240"/>
     <x v="9"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-06T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4496,12 +4832,12 @@
   <r>
     <n v="3241"/>
     <x v="10"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-07T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4511,12 +4847,12 @@
   <r>
     <n v="3242"/>
     <x v="11"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-08T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4526,12 +4862,12 @@
   <r>
     <n v="3243"/>
     <x v="12"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-09T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4541,12 +4877,12 @@
   <r>
     <n v="3244"/>
     <x v="13"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-10T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4556,12 +4892,12 @@
   <r>
     <n v="3245"/>
     <x v="14"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-11T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4571,12 +4907,12 @@
   <r>
     <n v="3246"/>
     <x v="15"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-12T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4586,12 +4922,12 @@
   <r>
     <n v="3247"/>
     <x v="16"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-13T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4601,12 +4937,12 @@
   <r>
     <n v="3248"/>
     <x v="17"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-14T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4616,12 +4952,12 @@
   <r>
     <n v="3249"/>
     <x v="18"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-15T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4631,12 +4967,12 @@
   <r>
     <n v="3250"/>
     <x v="19"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-16T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4646,12 +4982,12 @@
   <r>
     <n v="3251"/>
     <x v="20"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-17T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4661,12 +4997,12 @@
   <r>
     <n v="3252"/>
     <x v="21"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-18T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4676,12 +5012,12 @@
   <r>
     <n v="3253"/>
     <x v="22"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-19T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4691,12 +5027,12 @@
   <r>
     <n v="3254"/>
     <x v="23"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-20T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4706,12 +5042,12 @@
   <r>
     <n v="3255"/>
     <x v="24"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-21T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4721,12 +5057,12 @@
   <r>
     <n v="3256"/>
     <x v="25"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-22T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4736,12 +5072,12 @@
   <r>
     <n v="3257"/>
     <x v="26"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-23T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4751,12 +5087,12 @@
   <r>
     <n v="3258"/>
     <x v="27"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-24T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4766,12 +5102,12 @@
   <r>
     <n v="3259"/>
     <x v="28"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-25T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4781,12 +5117,12 @@
   <r>
     <n v="3260"/>
     <x v="29"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-26T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4796,12 +5132,12 @@
   <r>
     <n v="3261"/>
     <x v="30"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-27T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4811,12 +5147,12 @@
   <r>
     <n v="3262"/>
     <x v="31"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-28T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4826,12 +5162,12 @@
   <r>
     <n v="3263"/>
     <x v="32"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-03-29T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4841,12 +5177,12 @@
   <r>
     <n v="3264"/>
     <x v="33"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-03-30T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4856,12 +5192,12 @@
   <r>
     <n v="3265"/>
     <x v="34"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-03-31T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4871,12 +5207,12 @@
   <r>
     <n v="3266"/>
     <x v="35"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-01T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4886,12 +5222,12 @@
   <r>
     <n v="3267"/>
     <x v="36"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-02T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4901,12 +5237,12 @@
   <r>
     <n v="3268"/>
     <x v="37"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-03T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4916,12 +5252,12 @@
   <r>
     <n v="3269"/>
     <x v="38"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-04T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4931,12 +5267,12 @@
   <r>
     <n v="3270"/>
     <x v="39"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-05T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4946,12 +5282,12 @@
   <r>
     <n v="3271"/>
     <x v="40"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-06T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4961,12 +5297,12 @@
   <r>
     <n v="3272"/>
     <x v="41"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-07T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -4976,12 +5312,12 @@
   <r>
     <n v="3273"/>
     <x v="42"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-08T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4991,12 +5327,12 @@
   <r>
     <n v="3274"/>
     <x v="43"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-09T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5006,12 +5342,12 @@
   <r>
     <n v="3275"/>
     <x v="44"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-10T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5021,12 +5357,12 @@
   <r>
     <n v="3276"/>
     <x v="45"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-11T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5036,12 +5372,12 @@
   <r>
     <n v="3277"/>
     <x v="46"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-12T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5051,12 +5387,12 @@
   <r>
     <n v="3278"/>
     <x v="47"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-13T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5066,12 +5402,12 @@
   <r>
     <n v="3279"/>
     <x v="48"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-14T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5081,12 +5417,12 @@
   <r>
     <n v="3280"/>
     <x v="49"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-15T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5096,12 +5432,12 @@
   <r>
     <n v="3281"/>
     <x v="50"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-16T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5111,12 +5447,12 @@
   <r>
     <n v="3282"/>
     <x v="51"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-17T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5126,12 +5462,12 @@
   <r>
     <n v="3283"/>
     <x v="52"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-18T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5141,12 +5477,12 @@
   <r>
     <n v="3284"/>
     <x v="53"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-19T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5156,12 +5492,12 @@
   <r>
     <n v="3285"/>
     <x v="54"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-20T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5171,12 +5507,12 @@
   <r>
     <n v="3286"/>
     <x v="55"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-21T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5186,12 +5522,12 @@
   <r>
     <n v="3287"/>
     <x v="56"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-22T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5201,12 +5537,12 @@
   <r>
     <n v="3288"/>
     <x v="57"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-23T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5216,12 +5552,12 @@
   <r>
     <n v="3289"/>
     <x v="58"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-24T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5231,12 +5567,12 @@
   <r>
     <n v="3290"/>
     <x v="59"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-25T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5246,12 +5582,12 @@
   <r>
     <n v="3291"/>
     <x v="60"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-26T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5261,12 +5597,12 @@
   <r>
     <n v="3292"/>
     <x v="61"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-27T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5276,12 +5612,12 @@
   <r>
     <n v="3293"/>
     <x v="62"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-04-28T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5291,12 +5627,12 @@
   <r>
     <n v="3294"/>
     <x v="63"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-04-29T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5306,12 +5642,12 @@
   <r>
     <n v="3295"/>
     <x v="64"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-04-30T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5321,12 +5657,12 @@
   <r>
     <n v="3296"/>
     <x v="65"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-01T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5336,12 +5672,12 @@
   <r>
     <n v="3297"/>
     <x v="66"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-02T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5351,12 +5687,12 @@
   <r>
     <n v="3298"/>
     <x v="67"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-03T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5366,12 +5702,12 @@
   <r>
     <n v="3299"/>
     <x v="68"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-04T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5381,12 +5717,12 @@
   <r>
     <n v="3300"/>
     <x v="69"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-05T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5396,12 +5732,12 @@
   <r>
     <n v="3301"/>
     <x v="70"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-06T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5411,12 +5747,12 @@
   <r>
     <n v="3302"/>
     <x v="71"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-07T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5426,12 +5762,12 @@
   <r>
     <n v="3303"/>
     <x v="72"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-08T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5441,12 +5777,12 @@
   <r>
     <n v="3304"/>
     <x v="73"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-09T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5456,12 +5792,12 @@
   <r>
     <n v="3305"/>
     <x v="74"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-10T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5471,12 +5807,12 @@
   <r>
     <n v="3306"/>
     <x v="75"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-11T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5486,12 +5822,12 @@
   <r>
     <n v="3307"/>
     <x v="76"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-12T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5501,12 +5837,12 @@
   <r>
     <n v="3308"/>
     <x v="77"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-13T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5516,12 +5852,12 @@
   <r>
     <n v="3309"/>
     <x v="78"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-14T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5531,12 +5867,12 @@
   <r>
     <n v="3310"/>
     <x v="79"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-15T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5546,12 +5882,12 @@
   <r>
     <n v="3311"/>
     <x v="80"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-16T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5561,12 +5897,12 @@
   <r>
     <n v="3312"/>
     <x v="81"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-17T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5576,12 +5912,12 @@
   <r>
     <n v="3313"/>
     <x v="82"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-18T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5591,12 +5927,12 @@
   <r>
     <n v="3314"/>
     <x v="83"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-19T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5606,12 +5942,12 @@
   <r>
     <n v="3315"/>
     <x v="84"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-20T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5621,12 +5957,12 @@
   <r>
     <n v="3316"/>
     <x v="85"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-21T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5636,12 +5972,12 @@
   <r>
     <n v="3317"/>
     <x v="86"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-22T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5651,12 +5987,12 @@
   <r>
     <n v="3318"/>
     <x v="87"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-23T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5666,12 +6002,12 @@
   <r>
     <n v="3319"/>
     <x v="88"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-24T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5681,12 +6017,12 @@
   <r>
     <n v="3320"/>
     <x v="89"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-25T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5696,12 +6032,12 @@
   <r>
     <n v="3321"/>
     <x v="90"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-26T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5711,12 +6047,12 @@
   <r>
     <n v="3322"/>
     <x v="91"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-27T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5726,12 +6062,12 @@
   <r>
     <n v="3323"/>
     <x v="92"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-28T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5741,12 +6077,12 @@
   <r>
     <n v="3324"/>
     <x v="93"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-05-29T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5756,12 +6092,12 @@
   <r>
     <n v="3325"/>
     <x v="94"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-05-30T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5771,12 +6107,12 @@
   <r>
     <n v="3326"/>
     <x v="95"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-05-31T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5786,12 +6122,12 @@
   <r>
     <n v="3327"/>
     <x v="96"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-01T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5801,12 +6137,12 @@
   <r>
     <n v="3328"/>
     <x v="97"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-02T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5816,12 +6152,12 @@
   <r>
     <n v="3329"/>
     <x v="98"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-03T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5831,12 +6167,12 @@
   <r>
     <n v="3330"/>
     <x v="99"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-04T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5846,12 +6182,12 @@
   <r>
     <n v="3331"/>
     <x v="100"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-05T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5861,12 +6197,12 @@
   <r>
     <n v="3332"/>
     <x v="101"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-06T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5876,12 +6212,12 @@
   <r>
     <n v="3333"/>
     <x v="102"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-07T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5891,12 +6227,12 @@
   <r>
     <n v="3334"/>
     <x v="103"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-08T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5906,12 +6242,12 @@
   <r>
     <n v="3335"/>
     <x v="104"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-09T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5921,12 +6257,12 @@
   <r>
     <n v="3336"/>
     <x v="105"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-10T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5936,12 +6272,12 @@
   <r>
     <n v="3337"/>
     <x v="106"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-11T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5951,12 +6287,12 @@
   <r>
     <n v="3338"/>
     <x v="107"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-12T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5966,12 +6302,12 @@
   <r>
     <n v="3339"/>
     <x v="108"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-13T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -5981,12 +6317,12 @@
   <r>
     <n v="3340"/>
     <x v="109"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-14T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5996,12 +6332,12 @@
   <r>
     <n v="3341"/>
     <x v="110"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-15T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6011,12 +6347,12 @@
   <r>
     <n v="3342"/>
     <x v="111"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-16T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6026,12 +6362,12 @@
   <r>
     <n v="3343"/>
     <x v="112"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-17T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6041,12 +6377,12 @@
   <r>
     <n v="3344"/>
     <x v="113"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-18T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6056,12 +6392,12 @@
   <r>
     <n v="3345"/>
     <x v="114"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-19T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6071,12 +6407,12 @@
   <r>
     <n v="3346"/>
     <x v="115"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-20T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6086,12 +6422,12 @@
   <r>
     <n v="3347"/>
     <x v="116"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-21T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6101,12 +6437,12 @@
   <r>
     <n v="3348"/>
     <x v="117"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-22T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6116,12 +6452,12 @@
   <r>
     <n v="3349"/>
     <x v="93"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-23T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6131,12 +6467,12 @@
   <r>
     <n v="3350"/>
     <x v="118"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-24T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6146,12 +6482,12 @@
   <r>
     <n v="3351"/>
     <x v="119"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-25T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6161,12 +6497,12 @@
   <r>
     <n v="3352"/>
     <x v="120"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-26T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6176,12 +6512,12 @@
   <r>
     <n v="3353"/>
     <x v="121"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-27T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6191,12 +6527,12 @@
   <r>
     <n v="3354"/>
     <x v="122"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-06-28T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6206,12 +6542,12 @@
   <r>
     <n v="3355"/>
     <x v="123"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-06-29T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6221,12 +6557,12 @@
   <r>
     <n v="3356"/>
     <x v="124"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-06-30T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6236,12 +6572,12 @@
   <r>
     <n v="3357"/>
     <x v="125"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-01T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6251,12 +6587,12 @@
   <r>
     <n v="3358"/>
     <x v="126"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-02T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6266,12 +6602,12 @@
   <r>
     <n v="3359"/>
     <x v="127"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-03T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6281,12 +6617,12 @@
   <r>
     <n v="3360"/>
     <x v="128"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-04T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6296,12 +6632,12 @@
   <r>
     <n v="3361"/>
     <x v="129"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-05T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6311,12 +6647,12 @@
   <r>
     <n v="3362"/>
     <x v="130"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-06T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6326,12 +6662,12 @@
   <r>
     <n v="3363"/>
     <x v="131"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-07T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6341,12 +6677,12 @@
   <r>
     <n v="3364"/>
     <x v="132"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-08T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6356,12 +6692,12 @@
   <r>
     <n v="3365"/>
     <x v="133"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-09T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6371,12 +6707,12 @@
   <r>
     <n v="3366"/>
     <x v="134"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-10T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6386,12 +6722,12 @@
   <r>
     <n v="3367"/>
     <x v="135"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-11T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6401,12 +6737,12 @@
   <r>
     <n v="3368"/>
     <x v="136"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-12T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6416,12 +6752,12 @@
   <r>
     <n v="3369"/>
     <x v="137"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-13T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6431,12 +6767,12 @@
   <r>
     <n v="3370"/>
     <x v="138"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-14T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6446,12 +6782,12 @@
   <r>
     <n v="3371"/>
     <x v="139"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-15T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6461,12 +6797,12 @@
   <r>
     <n v="3372"/>
     <x v="140"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-16T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6476,12 +6812,12 @@
   <r>
     <n v="3373"/>
     <x v="141"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-17T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6491,12 +6827,12 @@
   <r>
     <n v="3374"/>
     <x v="142"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-18T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6506,12 +6842,12 @@
   <r>
     <n v="3375"/>
     <x v="143"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-19T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6521,12 +6857,12 @@
   <r>
     <n v="3376"/>
     <x v="144"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-20T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6536,12 +6872,12 @@
   <r>
     <n v="3377"/>
     <x v="145"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-21T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6551,12 +6887,12 @@
   <r>
     <n v="3378"/>
     <x v="146"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-22T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6566,12 +6902,12 @@
   <r>
     <n v="3379"/>
     <x v="147"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-23T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6581,12 +6917,12 @@
   <r>
     <n v="3380"/>
     <x v="148"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-24T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6596,12 +6932,12 @@
   <r>
     <n v="3381"/>
     <x v="149"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-25T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6611,12 +6947,12 @@
   <r>
     <n v="3382"/>
     <x v="150"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-26T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6626,12 +6962,12 @@
   <r>
     <n v="3383"/>
     <x v="151"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-27T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6641,12 +6977,12 @@
   <r>
     <n v="3384"/>
     <x v="152"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-28T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6656,12 +6992,12 @@
   <r>
     <n v="3385"/>
     <x v="153"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-07-29T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6671,12 +7007,12 @@
   <r>
     <n v="3386"/>
     <x v="154"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-07-30T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6686,12 +7022,12 @@
   <r>
     <n v="3387"/>
     <x v="155"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-07-31T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6701,12 +7037,12 @@
   <r>
     <n v="3388"/>
     <x v="156"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-01T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6716,12 +7052,12 @@
   <r>
     <n v="3389"/>
     <x v="157"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-02T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6731,12 +7067,12 @@
   <r>
     <n v="3390"/>
     <x v="158"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-03T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6746,12 +7082,12 @@
   <r>
     <n v="3391"/>
     <x v="58"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-04T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6761,12 +7097,12 @@
   <r>
     <n v="3392"/>
     <x v="159"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-05T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6776,12 +7112,12 @@
   <r>
     <n v="3393"/>
     <x v="160"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-06T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6791,12 +7127,12 @@
   <r>
     <n v="3394"/>
     <x v="161"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-07T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6806,12 +7142,12 @@
   <r>
     <n v="3395"/>
     <x v="162"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-08T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6821,12 +7157,12 @@
   <r>
     <n v="3396"/>
     <x v="163"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-09T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6836,12 +7172,12 @@
   <r>
     <n v="3397"/>
     <x v="90"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-10T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6851,12 +7187,12 @@
   <r>
     <n v="3398"/>
     <x v="164"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-11T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6866,12 +7202,12 @@
   <r>
     <n v="3399"/>
     <x v="165"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-12T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6881,12 +7217,12 @@
   <r>
     <n v="3400"/>
     <x v="166"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-13T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6896,12 +7232,12 @@
   <r>
     <n v="3401"/>
     <x v="167"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-14T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6911,12 +7247,12 @@
   <r>
     <n v="3402"/>
     <x v="168"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-15T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6926,12 +7262,12 @@
   <r>
     <n v="3403"/>
     <x v="169"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-16T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6941,12 +7277,12 @@
   <r>
     <n v="3404"/>
     <x v="170"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-17T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6956,12 +7292,12 @@
   <r>
     <n v="3405"/>
     <x v="171"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-18T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6971,12 +7307,12 @@
   <r>
     <n v="3406"/>
     <x v="172"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-19T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -6986,12 +7322,12 @@
   <r>
     <n v="3407"/>
     <x v="173"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-20T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7001,12 +7337,12 @@
   <r>
     <n v="3408"/>
     <x v="174"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-21T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7016,12 +7352,12 @@
   <r>
     <n v="3409"/>
     <x v="175"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-22T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7031,12 +7367,12 @@
   <r>
     <n v="3410"/>
     <x v="176"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-23T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7046,12 +7382,12 @@
   <r>
     <n v="3411"/>
     <x v="177"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-24T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7061,12 +7397,12 @@
   <r>
     <n v="3412"/>
     <x v="178"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-25T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7076,12 +7412,12 @@
   <r>
     <n v="3413"/>
     <x v="179"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-26T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7091,12 +7427,12 @@
   <r>
     <n v="3414"/>
     <x v="180"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-27T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7106,12 +7442,12 @@
   <r>
     <n v="3415"/>
     <x v="181"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-28T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7121,12 +7457,12 @@
   <r>
     <n v="3416"/>
     <x v="182"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-08-29T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7136,12 +7472,12 @@
   <r>
     <n v="3417"/>
     <x v="183"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-08-30T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7151,12 +7487,12 @@
   <r>
     <n v="3418"/>
     <x v="184"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-08-31T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7166,12 +7502,12 @@
   <r>
     <n v="3419"/>
     <x v="185"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-01T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7181,12 +7517,12 @@
   <r>
     <n v="3420"/>
     <x v="186"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-02T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7196,12 +7532,12 @@
   <r>
     <n v="3421"/>
     <x v="15"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-03T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7211,12 +7547,12 @@
   <r>
     <n v="3422"/>
     <x v="187"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-04T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7226,12 +7562,12 @@
   <r>
     <n v="3423"/>
     <x v="188"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-05T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7241,12 +7577,12 @@
   <r>
     <n v="3424"/>
     <x v="14"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-06T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7256,12 +7592,12 @@
   <r>
     <n v="3425"/>
     <x v="189"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-07T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7271,12 +7607,12 @@
   <r>
     <n v="3426"/>
     <x v="167"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-08T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7286,12 +7622,12 @@
   <r>
     <n v="3427"/>
     <x v="190"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-09T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7301,12 +7637,12 @@
   <r>
     <n v="3428"/>
     <x v="191"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-10T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7316,12 +7652,12 @@
   <r>
     <n v="3429"/>
     <x v="192"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-11T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7331,12 +7667,12 @@
   <r>
     <n v="3430"/>
     <x v="193"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-12T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7346,12 +7682,12 @@
   <r>
     <n v="3431"/>
     <x v="194"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-13T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7361,12 +7697,12 @@
   <r>
     <n v="3432"/>
     <x v="195"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-14T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7376,12 +7712,12 @@
   <r>
     <n v="3433"/>
     <x v="196"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-15T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7391,12 +7727,12 @@
   <r>
     <n v="3434"/>
     <x v="197"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-16T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7406,12 +7742,12 @@
   <r>
     <n v="3435"/>
     <x v="198"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-17T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7421,12 +7757,12 @@
   <r>
     <n v="3436"/>
     <x v="199"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-18T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7436,12 +7772,12 @@
   <r>
     <n v="3437"/>
     <x v="200"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-19T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7451,12 +7787,12 @@
   <r>
     <n v="3438"/>
     <x v="201"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-20T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7466,12 +7802,12 @@
   <r>
     <n v="3439"/>
     <x v="202"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-21T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7481,12 +7817,12 @@
   <r>
     <n v="3440"/>
     <x v="203"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-22T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7496,12 +7832,12 @@
   <r>
     <n v="3441"/>
     <x v="204"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-23T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7511,12 +7847,12 @@
   <r>
     <n v="3442"/>
     <x v="205"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-24T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7526,12 +7862,12 @@
   <r>
     <n v="3443"/>
     <x v="206"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-25T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7541,12 +7877,12 @@
   <r>
     <n v="3444"/>
     <x v="207"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-26T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7556,12 +7892,12 @@
   <r>
     <n v="3445"/>
     <x v="37"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-27T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7571,12 +7907,12 @@
   <r>
     <n v="3446"/>
     <x v="208"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-09-28T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7586,12 +7922,12 @@
   <r>
     <n v="3447"/>
     <x v="209"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-09-29T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7601,12 +7937,12 @@
   <r>
     <n v="3448"/>
     <x v="210"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-09-30T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7616,12 +7952,12 @@
   <r>
     <n v="3449"/>
     <x v="211"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-01T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7631,12 +7967,12 @@
   <r>
     <n v="3450"/>
     <x v="212"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-02T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7646,12 +7982,12 @@
   <r>
     <n v="3451"/>
     <x v="213"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-03T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7661,12 +7997,12 @@
   <r>
     <n v="3452"/>
     <x v="191"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-04T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7676,12 +8012,12 @@
   <r>
     <n v="3453"/>
     <x v="45"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-05T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7691,12 +8027,12 @@
   <r>
     <n v="3454"/>
     <x v="214"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-06T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7706,12 +8042,12 @@
   <r>
     <n v="3455"/>
     <x v="215"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-07T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7721,12 +8057,12 @@
   <r>
     <n v="3456"/>
     <x v="216"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-08T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7736,12 +8072,12 @@
   <r>
     <n v="3457"/>
     <x v="217"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-09T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7751,12 +8087,12 @@
   <r>
     <n v="3458"/>
     <x v="218"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-10T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7766,12 +8102,12 @@
   <r>
     <n v="3459"/>
     <x v="219"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-11T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7781,12 +8117,12 @@
   <r>
     <n v="3460"/>
     <x v="127"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-12T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7796,12 +8132,12 @@
   <r>
     <n v="3461"/>
     <x v="220"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-13T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7811,12 +8147,12 @@
   <r>
     <n v="3462"/>
     <x v="221"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-14T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7826,12 +8162,12 @@
   <r>
     <n v="3463"/>
     <x v="222"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-15T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7841,12 +8177,12 @@
   <r>
     <n v="3464"/>
     <x v="223"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-16T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7856,12 +8192,12 @@
   <r>
     <n v="3465"/>
     <x v="224"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-17T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7871,12 +8207,12 @@
   <r>
     <n v="3466"/>
     <x v="225"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-18T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7886,12 +8222,12 @@
   <r>
     <n v="3467"/>
     <x v="226"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-19T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7901,12 +8237,12 @@
   <r>
     <n v="3468"/>
     <x v="227"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-20T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7916,12 +8252,12 @@
   <r>
     <n v="3469"/>
     <x v="228"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-21T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7931,12 +8267,12 @@
   <r>
     <n v="3470"/>
     <x v="229"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-22T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7946,12 +8282,12 @@
   <r>
     <n v="3471"/>
     <x v="230"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-23T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7961,12 +8297,12 @@
   <r>
     <n v="3472"/>
     <x v="231"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-24T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -7976,12 +8312,12 @@
   <r>
     <n v="3473"/>
     <x v="140"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-25T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7991,12 +8327,12 @@
   <r>
     <n v="3474"/>
     <x v="232"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-26T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8006,12 +8342,12 @@
   <r>
     <n v="3475"/>
     <x v="233"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-27T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8021,12 +8357,12 @@
   <r>
     <n v="3476"/>
     <x v="234"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-28T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8036,12 +8372,12 @@
   <r>
     <n v="3477"/>
     <x v="235"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-10-29T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8051,12 +8387,12 @@
   <r>
     <n v="3478"/>
     <x v="236"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-10-30T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8066,12 +8402,12 @@
   <r>
     <n v="3479"/>
     <x v="237"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-10-31T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8081,12 +8417,12 @@
   <r>
     <n v="3480"/>
     <x v="238"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-01T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8096,12 +8432,12 @@
   <r>
     <n v="3481"/>
     <x v="239"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-02T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8111,12 +8447,12 @@
   <r>
     <n v="3482"/>
     <x v="240"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-03T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8126,12 +8462,12 @@
   <r>
     <n v="3483"/>
     <x v="241"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-04T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8141,12 +8477,12 @@
   <r>
     <n v="3484"/>
     <x v="242"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-05T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8156,12 +8492,12 @@
   <r>
     <n v="3485"/>
     <x v="243"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-06T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8171,12 +8507,12 @@
   <r>
     <n v="3486"/>
     <x v="244"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-07T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8186,12 +8522,12 @@
   <r>
     <n v="3487"/>
     <x v="245"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-08T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8201,12 +8537,12 @@
   <r>
     <n v="3488"/>
     <x v="246"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-09T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8216,12 +8552,12 @@
   <r>
     <n v="3489"/>
     <x v="247"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-10T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8231,12 +8567,12 @@
   <r>
     <n v="3490"/>
     <x v="248"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-11T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8246,12 +8582,12 @@
   <r>
     <n v="3491"/>
     <x v="249"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-12T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8261,12 +8597,12 @@
   <r>
     <n v="3492"/>
     <x v="250"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-13T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8276,12 +8612,12 @@
   <r>
     <n v="3493"/>
     <x v="251"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-14T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8291,12 +8627,12 @@
   <r>
     <n v="3494"/>
     <x v="252"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-15T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8306,12 +8642,12 @@
   <r>
     <n v="3495"/>
     <x v="253"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-16T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8321,12 +8657,12 @@
   <r>
     <n v="3496"/>
     <x v="254"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-17T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8336,12 +8672,12 @@
   <r>
     <n v="3497"/>
     <x v="255"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-18T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8351,12 +8687,12 @@
   <r>
     <n v="3498"/>
     <x v="256"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-19T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8366,12 +8702,12 @@
   <r>
     <n v="3499"/>
     <x v="257"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-20T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8381,12 +8717,12 @@
   <r>
     <n v="3500"/>
     <x v="258"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-21T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8396,12 +8732,12 @@
   <r>
     <n v="3501"/>
     <x v="259"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-22T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8411,12 +8747,12 @@
   <r>
     <n v="3502"/>
     <x v="260"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-23T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8426,12 +8762,12 @@
   <r>
     <n v="3503"/>
     <x v="119"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-24T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8441,12 +8777,12 @@
   <r>
     <n v="3504"/>
     <x v="261"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-25T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8456,12 +8792,12 @@
   <r>
     <n v="3505"/>
     <x v="262"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-26T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8471,12 +8807,12 @@
   <r>
     <n v="3506"/>
     <x v="263"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-27T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8486,12 +8822,12 @@
   <r>
     <n v="3507"/>
     <x v="264"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-11-28T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8501,12 +8837,12 @@
   <r>
     <n v="3508"/>
     <x v="265"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-11-29T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8516,12 +8852,12 @@
   <r>
     <n v="3509"/>
     <x v="266"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-11-30T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8531,12 +8867,12 @@
   <r>
     <n v="3510"/>
     <x v="267"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-01T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8546,12 +8882,12 @@
   <r>
     <n v="3511"/>
     <x v="268"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-02T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8561,12 +8897,12 @@
   <r>
     <n v="3512"/>
     <x v="269"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-03T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8576,12 +8912,12 @@
   <r>
     <n v="3513"/>
     <x v="270"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-04T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8591,12 +8927,12 @@
   <r>
     <n v="3514"/>
     <x v="271"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-05T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8606,12 +8942,12 @@
   <r>
     <n v="3515"/>
     <x v="130"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-06T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8621,12 +8957,12 @@
   <r>
     <n v="3516"/>
     <x v="131"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-07T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8636,12 +8972,12 @@
   <r>
     <n v="3517"/>
     <x v="181"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-08T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8651,12 +8987,12 @@
   <r>
     <n v="3518"/>
     <x v="272"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-09T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8666,12 +9002,12 @@
   <r>
     <n v="3519"/>
     <x v="273"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-10T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8681,12 +9017,12 @@
   <r>
     <n v="3520"/>
     <x v="274"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-11T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8696,12 +9032,12 @@
   <r>
     <n v="3521"/>
     <x v="275"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-12T00:00:00"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8711,12 +9047,12 @@
   <r>
     <n v="3522"/>
     <x v="276"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-13T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8726,12 +9062,12 @@
   <r>
     <n v="3523"/>
     <x v="277"/>
-    <s v="Ultimate"/>
+    <x v="0"/>
     <d v="2024-12-14T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Yes"/>
+    <x v="0"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8741,12 +9077,12 @@
   <r>
     <n v="3524"/>
     <x v="278"/>
-    <s v="Standard"/>
+    <x v="2"/>
     <d v="2024-12-15T00:00:00"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -8756,12 +9092,12 @@
   <r>
     <n v="3525"/>
     <x v="279"/>
-    <s v="Core"/>
+    <x v="1"/>
     <d v="2024-12-16T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="No"/>
+    <x v="1"/>
     <s v="-"/>
     <s v="No"/>
     <n v="0"/>
@@ -8772,14 +9108,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73046DD2-38AA-484A-B28C-C17DCB1F2C20}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="B20:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25C7C365-F85C-4440-907E-FED7B88E2EB8}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B42:C46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -8794,30 +9137,39 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -8827,31 +9179,11 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
+    <pageField fld="6" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Minecraft Season Pass Price" fld="10" baseField="2" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -8865,8 +9197,97 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CA51761-CCD9-4D01-A266-DB665D99DC92}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B9:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D27D801-04A9-4755-B416-14E33BFBEE79}" name="tbl_ea_season_pass_total" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B30:C34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CA51761-CCD9-4D01-A266-DB665D99DC92}" name="tbl_annual_total" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B9:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -9161,8 +9582,8 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9176,15 +9597,9 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -9208,10 +9623,106 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73046DD2-38AA-484A-B28C-C17DCB1F2C20}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="B20:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Subscription_Type" xr10:uid="{D82268F0-43BC-46B7-8355-6B302FB9582A}" sourceName="Subscription Type">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="3" name="tbl_ea_season_pass_total"/>
+    <pivotTable tabId="3" name="tbl_annual_total"/>
+    <pivotTable tabId="3" name="PivotTable3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1867138719">
@@ -9232,28 +9743,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9581,8 +10086,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9754,8 +10259,8 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:M294"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9857,7 +10362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3232</v>
       </c>
@@ -9898,7 +10403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3233</v>
       </c>
@@ -9980,7 +10485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3235</v>
       </c>
@@ -10021,7 +10526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3236</v>
       </c>
@@ -10103,7 +10608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>3238</v>
       </c>
@@ -10185,7 +10690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3240</v>
       </c>
@@ -10226,7 +10731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>3241</v>
       </c>
@@ -10308,7 +10813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>3243</v>
       </c>
@@ -10349,7 +10854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>3244</v>
       </c>
@@ -10431,7 +10936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>3246</v>
       </c>
@@ -10472,7 +10977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>3247</v>
       </c>
@@ -10554,7 +11059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3249</v>
       </c>
@@ -10595,7 +11100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>3250</v>
       </c>
@@ -10677,7 +11182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>3252</v>
       </c>
@@ -10718,7 +11223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>3253</v>
       </c>
@@ -10800,7 +11305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>3255</v>
       </c>
@@ -10841,7 +11346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>3256</v>
       </c>
@@ -10923,7 +11428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>3258</v>
       </c>
@@ -10964,7 +11469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>3259</v>
       </c>
@@ -11046,7 +11551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>3261</v>
       </c>
@@ -11087,7 +11592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>3262</v>
       </c>
@@ -11169,7 +11674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>3264</v>
       </c>
@@ -11210,7 +11715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>3265</v>
       </c>
@@ -11251,7 +11756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>3266</v>
       </c>
@@ -11333,7 +11838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3268</v>
       </c>
@@ -11374,7 +11879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3269</v>
       </c>
@@ -11456,7 +11961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>3271</v>
       </c>
@@ -11497,7 +12002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>3272</v>
       </c>
@@ -11579,7 +12084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>3274</v>
       </c>
@@ -11620,7 +12125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>3275</v>
       </c>
@@ -11702,7 +12207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>3277</v>
       </c>
@@ -11743,7 +12248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>3278</v>
       </c>
@@ -11825,7 +12330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>3280</v>
       </c>
@@ -11866,7 +12371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>3281</v>
       </c>
@@ -11948,7 +12453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>3283</v>
       </c>
@@ -11989,7 +12494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>3284</v>
       </c>
@@ -12071,7 +12576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>3286</v>
       </c>
@@ -12112,7 +12617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>3287</v>
       </c>
@@ -12194,7 +12699,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>3289</v>
       </c>
@@ -12235,7 +12740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>3290</v>
       </c>
@@ -12317,7 +12822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>3292</v>
       </c>
@@ -12358,7 +12863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>3293</v>
       </c>
@@ -12440,7 +12945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>3295</v>
       </c>
@@ -12481,7 +12986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>3296</v>
       </c>
@@ -12563,7 +13068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>3298</v>
       </c>
@@ -12604,7 +13109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>3299</v>
       </c>
@@ -12686,7 +13191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>3301</v>
       </c>
@@ -12727,7 +13232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>3302</v>
       </c>
@@ -12809,7 +13314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>3304</v>
       </c>
@@ -12850,7 +13355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>3305</v>
       </c>
@@ -12932,7 +13437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>3307</v>
       </c>
@@ -12973,7 +13478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>3308</v>
       </c>
@@ -13055,7 +13560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>3310</v>
       </c>
@@ -13096,7 +13601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>3311</v>
       </c>
@@ -13178,7 +13683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>3313</v>
       </c>
@@ -13219,7 +13724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>3314</v>
       </c>
@@ -13301,7 +13806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>3316</v>
       </c>
@@ -13342,7 +13847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>3317</v>
       </c>
@@ -13424,7 +13929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>3319</v>
       </c>
@@ -13465,7 +13970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>3320</v>
       </c>
@@ -13547,7 +14052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>3322</v>
       </c>
@@ -13588,7 +14093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>3323</v>
       </c>
@@ -13670,7 +14175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>3325</v>
       </c>
@@ -13711,7 +14216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>3326</v>
       </c>
@@ -13793,7 +14298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>3328</v>
       </c>
@@ -13834,7 +14339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>3329</v>
       </c>
@@ -13916,7 +14421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>3331</v>
       </c>
@@ -13957,7 +14462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>3332</v>
       </c>
@@ -14039,7 +14544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>3334</v>
       </c>
@@ -14080,7 +14585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>3335</v>
       </c>
@@ -14121,7 +14626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>3336</v>
       </c>
@@ -14203,7 +14708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>3338</v>
       </c>
@@ -14244,7 +14749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>3339</v>
       </c>
@@ -14326,7 +14831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>3341</v>
       </c>
@@ -14367,7 +14872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>3342</v>
       </c>
@@ -14449,7 +14954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>3344</v>
       </c>
@@ -14490,7 +14995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>3345</v>
       </c>
@@ -14572,7 +15077,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>3347</v>
       </c>
@@ -14613,7 +15118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>3348</v>
       </c>
@@ -14695,7 +15200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>3350</v>
       </c>
@@ -14736,7 +15241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>3351</v>
       </c>
@@ -14818,7 +15323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>3353</v>
       </c>
@@ -14859,7 +15364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>3354</v>
       </c>
@@ -14941,7 +15446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>3356</v>
       </c>
@@ -14982,7 +15487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>3357</v>
       </c>
@@ -15064,7 +15569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>3359</v>
       </c>
@@ -15105,7 +15610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>3360</v>
       </c>
@@ -15187,7 +15692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>3362</v>
       </c>
@@ -15228,7 +15733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>3363</v>
       </c>
@@ -15310,7 +15815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>3365</v>
       </c>
@@ -15351,7 +15856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>3366</v>
       </c>
@@ -15433,7 +15938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>3368</v>
       </c>
@@ -15474,7 +15979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>3369</v>
       </c>
@@ -15556,7 +16061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>3371</v>
       </c>
@@ -15597,7 +16102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>3372</v>
       </c>
@@ -15679,7 +16184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>3374</v>
       </c>
@@ -15720,7 +16225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>3375</v>
       </c>
@@ -15802,7 +16307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>3377</v>
       </c>
@@ -15843,7 +16348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>3378</v>
       </c>
@@ -15925,7 +16430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>3380</v>
       </c>
@@ -15966,7 +16471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>3381</v>
       </c>
@@ -16048,7 +16553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>3383</v>
       </c>
@@ -16089,7 +16594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>3384</v>
       </c>
@@ -16171,7 +16676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>3386</v>
       </c>
@@ -16212,7 +16717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>3387</v>
       </c>
@@ -16294,7 +16799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>3389</v>
       </c>
@@ -16335,7 +16840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>3390</v>
       </c>
@@ -16417,7 +16922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>3392</v>
       </c>
@@ -16458,7 +16963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>3393</v>
       </c>
@@ -16540,7 +17045,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>3395</v>
       </c>
@@ -16581,7 +17086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>3396</v>
       </c>
@@ -16663,7 +17168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>3398</v>
       </c>
@@ -16704,7 +17209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>3399</v>
       </c>
@@ -16786,7 +17291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>3401</v>
       </c>
@@ -16827,7 +17332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>3402</v>
       </c>
@@ -16909,7 +17414,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>3404</v>
       </c>
@@ -16950,7 +17455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>3405</v>
       </c>
@@ -16991,7 +17496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>3406</v>
       </c>
@@ -17073,7 +17578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>3408</v>
       </c>
@@ -17114,7 +17619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>3409</v>
       </c>
@@ -17196,7 +17701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>3411</v>
       </c>
@@ -17237,7 +17742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>3412</v>
       </c>
@@ -17319,7 +17824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>3414</v>
       </c>
@@ -17360,7 +17865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>3415</v>
       </c>
@@ -17442,7 +17947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>3417</v>
       </c>
@@ -17483,7 +17988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>3418</v>
       </c>
@@ -17565,7 +18070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>3420</v>
       </c>
@@ -17606,7 +18111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>3421</v>
       </c>
@@ -17688,7 +18193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>3423</v>
       </c>
@@ -17729,7 +18234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>3424</v>
       </c>
@@ -17811,7 +18316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>3426</v>
       </c>
@@ -17852,7 +18357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>3427</v>
       </c>
@@ -17934,7 +18439,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>3429</v>
       </c>
@@ -17975,7 +18480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>3430</v>
       </c>
@@ -18057,7 +18562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>3432</v>
       </c>
@@ -18098,7 +18603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>3433</v>
       </c>
@@ -18180,7 +18685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>3435</v>
       </c>
@@ -18221,7 +18726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>3436</v>
       </c>
@@ -18303,7 +18808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>3438</v>
       </c>
@@ -18344,7 +18849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>3439</v>
       </c>
@@ -18426,7 +18931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>3441</v>
       </c>
@@ -18467,7 +18972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>3442</v>
       </c>
@@ -18549,7 +19054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>3444</v>
       </c>
@@ -18590,7 +19095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>3445</v>
       </c>
@@ -18672,7 +19177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>3447</v>
       </c>
@@ -18713,7 +19218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>3448</v>
       </c>
@@ -18795,7 +19300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>3450</v>
       </c>
@@ -18836,7 +19341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>3451</v>
       </c>
@@ -18918,7 +19423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>3453</v>
       </c>
@@ -18959,7 +19464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>3454</v>
       </c>
@@ -19041,7 +19546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>3456</v>
       </c>
@@ -19082,7 +19587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>3457</v>
       </c>
@@ -19164,7 +19669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>3459</v>
       </c>
@@ -19205,7 +19710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>3460</v>
       </c>
@@ -19287,7 +19792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>3462</v>
       </c>
@@ -19328,7 +19833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>3463</v>
       </c>
@@ -19410,7 +19915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>3465</v>
       </c>
@@ -19451,7 +19956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>3466</v>
       </c>
@@ -19533,7 +20038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>3468</v>
       </c>
@@ -19574,7 +20079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>3469</v>
       </c>
@@ -19656,7 +20161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>3471</v>
       </c>
@@ -19697,7 +20202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>3472</v>
       </c>
@@ -19779,7 +20284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>3474</v>
       </c>
@@ -19820,7 +20325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>3475</v>
       </c>
@@ -19902,7 +20407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>3477</v>
       </c>
@@ -19943,7 +20448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>3478</v>
       </c>
@@ -20025,7 +20530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>3480</v>
       </c>
@@ -20066,7 +20571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>3481</v>
       </c>
@@ -20148,7 +20653,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>3483</v>
       </c>
@@ -20189,7 +20694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>3484</v>
       </c>
@@ -20271,7 +20776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>3486</v>
       </c>
@@ -20353,7 +20858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>3488</v>
       </c>
@@ -20394,7 +20899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>3489</v>
       </c>
@@ -20476,7 +20981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>3491</v>
       </c>
@@ -20517,7 +21022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>3492</v>
       </c>
@@ -20599,7 +21104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>3494</v>
       </c>
@@ -20640,7 +21145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>3495</v>
       </c>
@@ -20722,7 +21227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>3497</v>
       </c>
@@ -20763,7 +21268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>3498</v>
       </c>
@@ -20845,7 +21350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>3500</v>
       </c>
@@ -20886,7 +21391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>3501</v>
       </c>
@@ -20968,7 +21473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>3503</v>
       </c>
@@ -21009,7 +21514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>3504</v>
       </c>
@@ -21091,7 +21596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>3506</v>
       </c>
@@ -21132,7 +21637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>3507</v>
       </c>
@@ -21214,7 +21719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>3509</v>
       </c>
@@ -21255,7 +21760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>3510</v>
       </c>
@@ -21337,7 +21842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>3512</v>
       </c>
@@ -21378,7 +21883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>3513</v>
       </c>
@@ -21460,7 +21965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>3515</v>
       </c>
@@ -21501,7 +22006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>3516</v>
       </c>
@@ -21583,7 +22088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>3518</v>
       </c>
@@ -21624,7 +22129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>3519</v>
       </c>
@@ -21706,7 +22211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>3521</v>
       </c>
@@ -21747,7 +22252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>3522</v>
       </c>
@@ -21829,7 +22334,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>3524</v>
       </c>
@@ -21870,7 +22375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>3525</v>
       </c>
@@ -21925,18 +22430,18 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="B3:C23"/>
+  <dimension ref="B3:E46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.44140625" customWidth="1"/>
@@ -21959,7 +22464,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -21980,31 +22485,15 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="C11" s="15">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" s="15">
-        <v>7633</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -22050,19 +22539,134 @@
         <v>1754</v>
       </c>
     </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="16">
+        <v>600</v>
+      </c>
+      <c r="E34" s="17">
+        <f>GETPIVOTDATA("EA Play Season Pass
+Price",$B$30)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="15">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" s="15">
+        <v>940</v>
+      </c>
+      <c r="E46" s="17">
+        <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$42)</f>
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A1:O259"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22072,58 +22676,59 @@
     <col min="12" max="12" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:15" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C2" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -22869,21 +23474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF9F97E47C51E343AF773F1049776F76" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c2a43ea632fa60fb25310d020f8b587">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d39ee163-50ae-4a2c-bc37-3370ad9828bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38ae0587694d0d5e4213508640df1d02" ns3:_="">
     <xsd:import namespace="d39ee163-50ae-4a2c-bc37-3370ad9828bc"/>
@@ -23041,10 +23631,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FB44C0-177E-4C68-A86B-0FF480D8A15E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d39ee163-50ae-4a2c-bc37-3370ad9828bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23066,19 +23681,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FB44C0-177E-4C68-A86B-0FF480D8A15E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d39ee163-50ae-4a2c-bc37-3370ad9828bc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Xbox_Game_Pass_Subscriptions_Sales.xlsx
+++ b/Xbox_Game_Pass_Subscriptions_Sales.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Personal Projects\DIO\xbox-game-pass-subscriptions-salles-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC05AF-EE20-4FB5-AB5F-B3491D39AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC72C6F-B242-481E-A05B-B632351D5DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="3" r:id="rId3"/>
+    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1210,9 +1210,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="12"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1220,6 +1222,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1262,51 +1296,11 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF22C55E"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{313518BB-6A92-4C63-A7C1-F9886D7ADFD5}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1325,7 +1319,239 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="8">
+      <x14:dxfs count="16">
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.79998168889431442"/>
+              <bgColor theme="9" tint="0.79998168889431442"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="9" tint="0.59999389629810485"/>
+              <bgColor theme="9" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF828282"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFE0E0E0"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFE0E0E0"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFE0E0E0"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFE0E0E0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFFFFFFF"/>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFCCCCCC"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFCCCCCC"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFCCCCCC"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFCCCCCC"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
         <dxf>
           <font>
             <color rgb="FF000000"/>
@@ -3328,16 +3554,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1257301</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>355473</xdr:rowOff>
+      <xdr:rowOff>309753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3367,8 +3593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="180975"/>
-          <a:ext cx="504826" cy="984123"/>
+          <a:off x="2299335" y="135255"/>
+          <a:ext cx="504826" cy="989838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3403,7 +3629,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2564131" y="3952875"/>
+          <a:off x="2381251" y="3952875"/>
           <a:ext cx="8964929" cy="2975609"/>
           <a:chOff x="2781301" y="2238375"/>
           <a:chExt cx="4838700" cy="2943224"/>
@@ -3491,18 +3717,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>278130</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Subscription Type">
@@ -3525,7 +3751,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3535,8 +3761,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="142875" y="2392680"/>
-              <a:ext cx="1828800" cy="2581275"/>
+              <a:off x="28575" y="1687830"/>
+              <a:ext cx="1828800" cy="2606040"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3592,7 +3818,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2565083" y="1663395"/>
+          <a:off x="2382203" y="1663395"/>
           <a:ext cx="8918257" cy="1697650"/>
           <a:chOff x="2549843" y="1533855"/>
           <a:chExt cx="8918257" cy="1697650"/>
@@ -4321,6 +4547,234 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F7138D-B798-898C-A3C8-B15D6D517F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484120" y="1196340"/>
+          <a:ext cx="4968240" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Calculation period 01/01/2024 - 31/12/2024 | Update date: 13/01/2026 12:00</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>331146</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Elipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6423723F-258B-4656-9BAA-FDF93E5F4A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472440" y="281940"/>
+          <a:ext cx="906780" cy="864546"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9B5007-39E4-955D-0E5E-2C3130B9DDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="1333500"/>
+          <a:ext cx="1516380" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt; Wellcome</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> User</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9743,22 +10197,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10086,8 +10540,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10260,7 +10714,7 @@
   <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22665,31 +23119,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" customWidth="1"/>
     <col min="12" max="12" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
